--- a/documentation/writeUp/evaluationJobs.xlsx
+++ b/documentation/writeUp/evaluationJobs.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\projects\clusterColombia\climacolombia\documentation\writeUp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C9F03F1-E665-4CFC-8C26-D4B8B102F614}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7D0C9CA5-3659-4567-9D76-6EF27F1EA926}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{DC76DEBC-A1F9-45F2-A205-10806F0ABE5F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <pivotCaches>
+    <pivotCache cacheId="10" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="70">
   <si>
     <t>KM</t>
   </si>
@@ -57,9 +61,6 @@
     <t>method</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
@@ -85,13 +86,169 @@
   </si>
   <si>
     <t>ideamci</t>
+  </si>
+  <si>
+    <t>r4.xlarge</t>
+  </si>
+  <si>
+    <t>per Hour</t>
+  </si>
+  <si>
+    <t>per min</t>
+  </si>
+  <si>
+    <t>per sec</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>check the strategies look good</t>
+  </si>
+  <si>
+    <t>10 instances</t>
+  </si>
+  <si>
+    <t>http://lacunae.io/geovis2018_10_27_11_53_39/</t>
+  </si>
+  <si>
+    <t>http://lacunae.io/geovis2018_10_27_11_53_30/</t>
+  </si>
+  <si>
+    <t>http://lacunae.io/geovis2018_10_27_11_46_08/</t>
+  </si>
+  <si>
+    <t>http://lacunae.io/geovis2018_10_27_12_58_07/</t>
+  </si>
+  <si>
+    <t>http://lacunae.io/geovis2018_10_27_14_20_42/</t>
+  </si>
+  <si>
+    <t>http://lacunae.io/geovis2018_10_27_14_20_00/</t>
+  </si>
+  <si>
+    <t>http://lacunae.io/geovis2018_10_27_14_18_36/</t>
+  </si>
+  <si>
+    <t>http://lacunae.io/geovis2018_10_27_14_06_53/</t>
+  </si>
+  <si>
+    <t>http://lacunae.io/geovis2018_10_27_14_06_45/</t>
+  </si>
+  <si>
+    <t>http://lacunae.io/geovis2018_10_27_14_21_03/</t>
+  </si>
+  <si>
+    <t>http://lacunae.io/geovis2018_10_27_14_20_56/</t>
+  </si>
+  <si>
+    <t>http://lacunae.io/geovis2018_10_26_14_53_14/</t>
+  </si>
+  <si>
+    <t>http://lacunae.io/geovis2018_10_26_14_14_21/</t>
+  </si>
+  <si>
+    <t>http://lacunae.io/geovis2018_10_27_11_20_24/</t>
+  </si>
+  <si>
+    <t>http://lacunae.io/geovis2018_10_27_11_21_05/</t>
+  </si>
+  <si>
+    <t>total mins</t>
+  </si>
+  <si>
+    <t>total secs</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>KM6TRh</t>
+  </si>
+  <si>
+    <t>KM11TRh</t>
+  </si>
+  <si>
+    <t>BKM11TRh</t>
+  </si>
+  <si>
+    <t>KM6TrRh</t>
+  </si>
+  <si>
+    <t>KM11TrRh</t>
+  </si>
+  <si>
+    <t>KM11TRhWs</t>
+  </si>
+  <si>
+    <t>KM11TTrRhWs</t>
+  </si>
+  <si>
+    <t>KM6TRhWs</t>
+  </si>
+  <si>
+    <t>KM6TTrRhWs</t>
+  </si>
+  <si>
+    <t>BKM6TRh</t>
+  </si>
+  <si>
+    <t>BKM6TrRh</t>
+  </si>
+  <si>
+    <t>BKM11TrRh</t>
+  </si>
+  <si>
+    <t>BKM11TRhWs</t>
+  </si>
+  <si>
+    <t>BKM11TTrRhWs</t>
+  </si>
+  <si>
+    <t>BKM6TRhWs</t>
+  </si>
+  <si>
+    <t>BKM6TTrRhWs</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dunn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wssse</t>
+  </si>
+  <si>
+    <t>sd utci</t>
+  </si>
+  <si>
+    <t>ideamci sd</t>
+  </si>
+  <si>
+    <t>http://lacunae.io/geovis2018_10_27_15_05_38/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,16 +262,55 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -159,11 +355,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -171,8 +420,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -186,6 +473,464 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="43400.650348263887" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16" xr:uid="{ABBE4D84-670B-4941-AE58-4C1CB524E737}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="E2:Q18" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="name" numFmtId="0">
+      <sharedItems count="16">
+        <s v="KM6TRh"/>
+        <s v="KM6TrRh"/>
+        <s v="KM6TRhWs"/>
+        <s v="KM6TTrRhWs"/>
+        <s v="BKM6TRh"/>
+        <s v="BKM6TrRh"/>
+        <s v="BKM6TRhWs"/>
+        <s v="BKM6TTrRhWs"/>
+        <s v="KM11TRh"/>
+        <s v="KM11TrRh"/>
+        <s v="KM11TRhWs"/>
+        <s v="KM11TTrRhWs"/>
+        <s v="BKM11TRh"/>
+        <s v="BKM11TrRh"/>
+        <s v="BKM11TRhWs"/>
+        <s v="BKM11TTrRhWs"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="total mins" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="27.466666666666665" maxValue="70.7"/>
+    </cacheField>
+    <cacheField name="total secs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1648" maxValue="4242"/>
+    </cacheField>
+    <cacheField name="$" numFmtId="172">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.3067111111111111" maxValue="0.78948333333333343"/>
+    </cacheField>
+    <cacheField name="sil" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.77" maxValue="0.99"/>
+    </cacheField>
+    <cacheField name="dunn" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.56" maxValue="8.4600000000000009"/>
+    </cacheField>
+    <cacheField name="wssse" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.68" maxValue="54.25"/>
+    </cacheField>
+    <cacheField name="mean" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.49" maxValue="1.93"/>
+    </cacheField>
+    <cacheField name="sd" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.0699999999999998" maxValue="5.29"/>
+    </cacheField>
+    <cacheField name="rmse" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.17" maxValue="5.63"/>
+    </cacheField>
+    <cacheField name="mean2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.67" maxValue="-0.09"/>
+    </cacheField>
+    <cacheField name="sd2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.25" maxValue="3.18"/>
+    </cacheField>
+    <cacheField name="rmse2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.27" maxValue="3.25"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="16">
+  <r>
+    <x v="0"/>
+    <n v="28.6"/>
+    <n v="1716"/>
+    <n v="0.31936666666666669"/>
+    <n v="0.97"/>
+    <n v="3.53"/>
+    <n v="7.6"/>
+    <n v="1.24"/>
+    <n v="3.12"/>
+    <n v="3.35"/>
+    <n v="-0.14000000000000001"/>
+    <n v="1.36"/>
+    <n v="1.36"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="33.18333333333333"/>
+    <n v="1991"/>
+    <n v="0.37054722222222219"/>
+    <n v="0.97"/>
+    <n v="4"/>
+    <n v="1.98"/>
+    <n v="1.91"/>
+    <n v="5.28"/>
+    <n v="5.61"/>
+    <n v="-0.64"/>
+    <n v="3.16"/>
+    <n v="3.23"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="44.733333333333334"/>
+    <n v="2684"/>
+    <n v="0.49952222222222226"/>
+    <n v="0.87"/>
+    <n v="2.92"/>
+    <n v="34.450000000000003"/>
+    <n v="0.94"/>
+    <n v="2.85"/>
+    <n v="3"/>
+    <n v="-0.26"/>
+    <n v="1.45"/>
+    <n v="1.47"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="45.43333333333333"/>
+    <n v="2726"/>
+    <n v="0.50733888888888889"/>
+    <n v="0.77"/>
+    <n v="2.85"/>
+    <n v="51.21"/>
+    <n v="0.98"/>
+    <n v="2.82"/>
+    <n v="2.99"/>
+    <n v="-0.24"/>
+    <n v="1.44"/>
+    <n v="1.46"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="27.466666666666665"/>
+    <n v="1648"/>
+    <n v="0.3067111111111111"/>
+    <n v="0.97"/>
+    <n v="3.8"/>
+    <n v="7.63"/>
+    <n v="1.41"/>
+    <n v="3.04"/>
+    <n v="3.35"/>
+    <n v="-0.24"/>
+    <n v="1.34"/>
+    <n v="1.36"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="43.366666666666667"/>
+    <n v="2602"/>
+    <n v="0.48426111111111114"/>
+    <n v="0.93"/>
+    <n v="2.65"/>
+    <n v="2.39"/>
+    <n v="1.93"/>
+    <n v="5.29"/>
+    <n v="5.63"/>
+    <n v="-0.67"/>
+    <n v="3.18"/>
+    <n v="3.25"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="45.666666666666664"/>
+    <n v="2740"/>
+    <n v="0.50994444444444442"/>
+    <n v="0.84"/>
+    <n v="2.78"/>
+    <n v="36.04"/>
+    <n v="0.84"/>
+    <n v="2.76"/>
+    <n v="2.88"/>
+    <n v="-0.26"/>
+    <n v="1.34"/>
+    <n v="1.37"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="45.31666666666667"/>
+    <n v="2719"/>
+    <n v="0.50603611111111113"/>
+    <n v="0.77"/>
+    <n v="2.56"/>
+    <n v="54.25"/>
+    <n v="1.06"/>
+    <n v="3.17"/>
+    <n v="3.35"/>
+    <n v="-0.33"/>
+    <n v="1.71"/>
+    <n v="1.74"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="43.716666666666669"/>
+    <n v="2623"/>
+    <n v="0.48816944444444449"/>
+    <n v="0.99"/>
+    <n v="5.84"/>
+    <n v="2.5099999999999998"/>
+    <n v="1.28"/>
+    <n v="2.92"/>
+    <n v="3.18"/>
+    <n v="-0.16"/>
+    <n v="1.26"/>
+    <n v="1.27"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="44.333333333333336"/>
+    <n v="2660"/>
+    <n v="0.49505555555555558"/>
+    <n v="0.99"/>
+    <n v="8.4600000000000009"/>
+    <n v="0.68"/>
+    <n v="1.93"/>
+    <n v="5.28"/>
+    <n v="5.62"/>
+    <n v="-0.65"/>
+    <n v="3.17"/>
+    <n v="3.23"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="70.7"/>
+    <n v="4242"/>
+    <n v="0.78948333333333343"/>
+    <n v="0.93"/>
+    <n v="4.4000000000000004"/>
+    <n v="19.010000000000002"/>
+    <n v="0.49"/>
+    <n v="2.35"/>
+    <n v="2.4"/>
+    <n v="-0.09"/>
+    <n v="1.29"/>
+    <n v="1.29"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="67.683333333333337"/>
+    <n v="4061"/>
+    <n v="0.75579722222222223"/>
+    <n v="0.88"/>
+    <n v="4.13"/>
+    <n v="34.83"/>
+    <n v="0.6"/>
+    <n v="2.7"/>
+    <n v="2.77"/>
+    <n v="-0.11"/>
+    <n v="1.39"/>
+    <n v="1.39"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="43.733333333333334"/>
+    <n v="2624"/>
+    <n v="0.48835555555555554"/>
+    <n v="0.99"/>
+    <n v="4.1399999999999997"/>
+    <n v="2.8"/>
+    <n v="1.33"/>
+    <n v="2.88"/>
+    <n v="3.17"/>
+    <n v="-0.2"/>
+    <n v="1.29"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="65.3"/>
+    <n v="3918"/>
+    <n v="0.72918333333333329"/>
+    <n v="0.98"/>
+    <n v="5.04"/>
+    <n v="0.83"/>
+    <n v="1.93"/>
+    <n v="5.27"/>
+    <n v="5.61"/>
+    <n v="-0.66"/>
+    <n v="3.18"/>
+    <n v="3.24"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="68.8"/>
+    <n v="4128"/>
+    <n v="0.76826666666666665"/>
+    <n v="0.9"/>
+    <n v="2.93"/>
+    <n v="21.43"/>
+    <n v="0.65"/>
+    <n v="2.0699999999999998"/>
+    <n v="2.17"/>
+    <n v="-0.18"/>
+    <n v="1.25"/>
+    <n v="1.27"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="41.666666666666664"/>
+    <n v="2500"/>
+    <n v="0.46527777777777773"/>
+    <n v="0.82"/>
+    <n v="2.92"/>
+    <n v="38.07"/>
+    <n v="0.71"/>
+    <n v="2.76"/>
+    <n v="2.85"/>
+    <n v="-0.23"/>
+    <n v="1.58"/>
+    <n v="1.6"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8220A296-A18E-454C-BAA6-84CDAD8FFF81}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="17">
+        <item x="12"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="172" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name=" dunn" fld="5" baseField="0" baseItem="0"/>
+    <dataField name=" sil" fld="4" baseField="0" baseItem="0"/>
+    <dataField name=" wssse" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="sd utci" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="ideamci sd" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,24 +1229,442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC85AE9-E338-486B-9FD4-D48A83E178DE}">
-  <dimension ref="A1:O28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D958AE5-8B60-4C50-BFC1-A0CF9128626B}">
+  <dimension ref="A3:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="8">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5.28</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5.84</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.92</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5.04</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5.27</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="D7" s="8">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.35</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2.88</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="D9" s="8">
+        <v>34.83</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="8">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1.98</v>
+      </c>
+      <c r="E10" s="8">
+        <v>5.28</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="D11" s="8">
+        <v>7.63</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3.04</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3.53</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="D12" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3.12</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2.93</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="D13" s="8">
+        <v>21.43</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2.92</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="D14" s="8">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2.92</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="D15" s="8">
+        <v>38.07</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.76</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="D16" s="8">
+        <v>51.21</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2.82</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2.78</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="D17" s="8">
+        <v>36.04</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.76</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2.65</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2.39</v>
+      </c>
+      <c r="E18" s="8">
+        <v>5.29</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2.56</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="D19" s="8">
+        <v>54.25</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3.17</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="8">
+        <v>62.95</v>
+      </c>
+      <c r="C20" s="8">
+        <v>14.57</v>
+      </c>
+      <c r="D20" s="8">
+        <v>315.70999999999998</v>
+      </c>
+      <c r="E20" s="8">
+        <v>54.560000000000009</v>
+      </c>
+      <c r="F20" s="8">
+        <v>29.390000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC85AE9-E338-486B-9FD4-D48A83E178DE}">
+  <dimension ref="A1:W28"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="12" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" customWidth="1"/>
+    <col min="20" max="20" width="44" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -511,41 +1674,56 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -558,8 +1736,65 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="12">
+        <f>G3/60</f>
+        <v>28.6</v>
+      </c>
+      <c r="G3" s="24">
+        <v>1716</v>
+      </c>
+      <c r="H3" s="15">
+        <f>F3*$V$3</f>
+        <v>0.31936666666666669</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="J3" s="11">
+        <v>3.53</v>
+      </c>
+      <c r="K3" s="11">
+        <v>7.6</v>
+      </c>
+      <c r="L3" s="16">
+        <v>1.24</v>
+      </c>
+      <c r="M3" s="16">
+        <v>3.12</v>
+      </c>
+      <c r="N3" s="16">
+        <v>3.35</v>
+      </c>
+      <c r="O3" s="11">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="P3" s="11">
+        <v>1.36</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>1.36</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3">
+        <f>V2/60</f>
+        <v>1.1166666666666667E-2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -569,8 +1804,65 @@
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="12">
+        <f>G4/60</f>
+        <v>33.18333333333333</v>
+      </c>
+      <c r="G4" s="24">
+        <v>1991</v>
+      </c>
+      <c r="H4" s="15">
+        <f>F4*$V$3</f>
+        <v>0.37054722222222219</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="J4" s="11">
+        <v>4</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1.98</v>
+      </c>
+      <c r="L4" s="16">
+        <v>1.91</v>
+      </c>
+      <c r="M4" s="16">
+        <v>5.28</v>
+      </c>
+      <c r="N4" s="16">
+        <v>5.61</v>
+      </c>
+      <c r="O4" s="11">
+        <v>-0.64</v>
+      </c>
+      <c r="P4" s="11">
+        <v>3.16</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>3.23</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4">
+        <f>V3/60</f>
+        <v>1.8611111111111112E-4</v>
+      </c>
+      <c r="W4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -580,8 +1872,61 @@
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" ref="F5:F18" si="0">G5/60</f>
+        <v>44.733333333333334</v>
+      </c>
+      <c r="G5" s="24">
+        <v>2684</v>
+      </c>
+      <c r="H5" s="15">
+        <f t="shared" ref="H5:H18" si="1">F5*$V$3</f>
+        <v>0.49952222222222226</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="J5" s="11">
+        <v>2.92</v>
+      </c>
+      <c r="K5" s="11">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="M5" s="16">
+        <v>2.85</v>
+      </c>
+      <c r="N5" s="16">
+        <v>3</v>
+      </c>
+      <c r="O5" s="11">
+        <v>-0.26</v>
+      </c>
+      <c r="P5" s="11">
+        <v>1.45</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>1.47</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -591,110 +1936,619 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>45.43333333333333</v>
+      </c>
+      <c r="G6" s="24">
+        <v>2726</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" si="1"/>
+        <v>0.50733888888888889</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="J6" s="11">
+        <v>2.85</v>
+      </c>
+      <c r="K6" s="11">
+        <v>51.21</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0.98</v>
+      </c>
+      <c r="M6" s="16">
+        <v>2.82</v>
+      </c>
+      <c r="N6" s="16">
+        <v>2.99</v>
+      </c>
+      <c r="O6" s="11">
+        <v>-0.24</v>
+      </c>
+      <c r="P6" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>1.46</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
       <c r="C7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="12">
+        <f>G7/60</f>
+        <v>27.466666666666665</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1648</v>
+      </c>
+      <c r="H7" s="15">
+        <f>F7*$V$3</f>
+        <v>0.3067111111111111</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="J7" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="K7" s="11">
+        <v>7.63</v>
+      </c>
+      <c r="L7" s="16">
+        <v>1.41</v>
+      </c>
+      <c r="M7" s="16">
+        <v>3.04</v>
+      </c>
+      <c r="N7" s="16">
+        <v>3.35</v>
+      </c>
+      <c r="O7" s="11">
+        <v>-0.24</v>
+      </c>
+      <c r="P7" s="11">
+        <v>1.34</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>1.36</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="12">
+        <f>G8/60</f>
+        <v>43.366666666666667</v>
+      </c>
+      <c r="G8" s="24">
+        <v>2602</v>
+      </c>
+      <c r="H8" s="15">
+        <f>F8*$V$3</f>
+        <v>0.48426111111111114</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="J8" s="11">
+        <v>2.65</v>
+      </c>
+      <c r="K8" s="11">
+        <v>2.39</v>
+      </c>
+      <c r="L8" s="16">
+        <v>1.93</v>
+      </c>
+      <c r="M8" s="16">
+        <v>5.29</v>
+      </c>
+      <c r="N8" s="16">
+        <v>5.63</v>
+      </c>
+      <c r="O8" s="11">
+        <v>-0.67</v>
+      </c>
+      <c r="P8" s="11">
+        <v>3.18</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>3.25</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="12">
+        <f>G9/60</f>
+        <v>45.666666666666664</v>
+      </c>
+      <c r="G9" s="25">
+        <v>2740</v>
+      </c>
+      <c r="H9" s="15">
+        <f>F9*$V$3</f>
+        <v>0.50994444444444442</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="J9" s="11">
+        <v>2.78</v>
+      </c>
+      <c r="K9" s="11">
+        <v>36.04</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="M9" s="16">
+        <v>2.76</v>
+      </c>
+      <c r="N9" s="16">
+        <v>2.88</v>
+      </c>
+      <c r="O9" s="11">
+        <v>-0.26</v>
+      </c>
+      <c r="P9" s="11">
+        <v>1.34</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>1.37</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="12">
+        <f>G10/60</f>
+        <v>45.31666666666667</v>
+      </c>
+      <c r="G10" s="24">
+        <v>2719</v>
+      </c>
+      <c r="H10" s="15">
+        <f>F10*$V$3</f>
+        <v>0.50603611111111113</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="J10" s="11">
+        <v>2.56</v>
+      </c>
+      <c r="K10" s="11">
+        <v>54.25</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1.06</v>
+      </c>
+      <c r="M10" s="16">
+        <v>3.17</v>
+      </c>
+      <c r="N10" s="16">
+        <v>3.35</v>
+      </c>
+      <c r="O10" s="11">
+        <v>-0.33</v>
+      </c>
+      <c r="P10" s="11">
+        <v>1.71</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>1.74</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="12">
+        <f>G11/60</f>
+        <v>43.716666666666669</v>
+      </c>
+      <c r="G11" s="24">
+        <v>2623</v>
+      </c>
+      <c r="H11" s="15">
+        <f>F11*$V$3</f>
+        <v>0.48816944444444449</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="J11" s="11">
+        <v>5.84</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="L11" s="16">
+        <v>1.28</v>
+      </c>
+      <c r="M11" s="16">
+        <v>2.92</v>
+      </c>
+      <c r="N11" s="16">
+        <v>3.18</v>
+      </c>
+      <c r="O11" s="11">
+        <v>-0.16</v>
+      </c>
+      <c r="P11" s="11">
+        <v>1.26</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>1.27</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="12">
+        <f>G12/60</f>
+        <v>44.333333333333336</v>
+      </c>
+      <c r="G12" s="24">
+        <v>2660</v>
+      </c>
+      <c r="H12" s="15">
+        <f>F12*$V$3</f>
+        <v>0.49505555555555558</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="J12" s="11">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0.68</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1.93</v>
+      </c>
+      <c r="M12" s="16">
+        <v>5.28</v>
+      </c>
+      <c r="N12" s="16">
+        <v>5.62</v>
+      </c>
+      <c r="O12" s="11">
+        <v>-0.65</v>
+      </c>
+      <c r="P12" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>3.23</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="12">
+        <f>G13/60</f>
+        <v>70.7</v>
+      </c>
+      <c r="G13" s="24">
+        <v>4242</v>
+      </c>
+      <c r="H13" s="15">
+        <f>F13*$V$3</f>
+        <v>0.78948333333333343</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="J13" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K13" s="11">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0.49</v>
+      </c>
+      <c r="M13" s="16">
+        <v>2.35</v>
+      </c>
+      <c r="N13" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="O13" s="11">
+        <v>-0.09</v>
+      </c>
+      <c r="P13" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="12">
+        <f>G14/60</f>
+        <v>67.683333333333337</v>
+      </c>
+      <c r="G14" s="24">
+        <v>4061</v>
+      </c>
+      <c r="H14" s="15">
+        <f>F14*$V$3</f>
+        <v>0.75579722222222223</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="J14" s="11">
+        <v>4.13</v>
+      </c>
+      <c r="K14" s="11">
+        <v>34.83</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="M14" s="16">
+        <v>2.7</v>
+      </c>
+      <c r="N14" s="16">
+        <v>2.77</v>
+      </c>
+      <c r="O14" s="11">
+        <v>-0.11</v>
+      </c>
+      <c r="P14" s="11">
+        <v>1.39</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>1.39</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
       <c r="C15">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>43.733333333333334</v>
+      </c>
+      <c r="G15" s="24">
+        <v>2624</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="1"/>
+        <v>0.48835555555555554</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="J15" s="11">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="K15" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1.33</v>
+      </c>
+      <c r="M15" s="16">
+        <v>2.88</v>
+      </c>
+      <c r="N15" s="16">
+        <v>3.17</v>
+      </c>
+      <c r="O15" s="11">
+        <v>-0.2</v>
+      </c>
+      <c r="P15" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -704,8 +2558,58 @@
       <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="0"/>
+        <v>65.3</v>
+      </c>
+      <c r="G16" s="24">
+        <v>3918</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="1"/>
+        <v>0.72918333333333329</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="J16" s="11">
+        <v>5.04</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="L16" s="16">
+        <v>1.93</v>
+      </c>
+      <c r="M16" s="16">
+        <v>5.27</v>
+      </c>
+      <c r="N16" s="16">
+        <v>5.61</v>
+      </c>
+      <c r="O16" s="11">
+        <v>-0.66</v>
+      </c>
+      <c r="P16" s="11">
+        <v>3.18</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>3.24</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -715,8 +2619,58 @@
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
+        <v>68.8</v>
+      </c>
+      <c r="G17" s="24">
+        <v>4128</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="1"/>
+        <v>0.76826666666666665</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="J17" s="11">
+        <v>2.93</v>
+      </c>
+      <c r="K17" s="11">
+        <v>21.43</v>
+      </c>
+      <c r="L17" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="M17" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="N17" s="16">
+        <v>2.17</v>
+      </c>
+      <c r="O17" s="11">
+        <v>-0.18</v>
+      </c>
+      <c r="P17" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>1.27</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -726,8 +2680,61 @@
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="G18" s="24">
+        <v>2500</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="1"/>
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="J18" s="11">
+        <v>2.92</v>
+      </c>
+      <c r="K18" s="11">
+        <v>38.07</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0.71</v>
+      </c>
+      <c r="M18" s="16">
+        <v>2.76</v>
+      </c>
+      <c r="N18" s="16">
+        <v>2.85</v>
+      </c>
+      <c r="O18" s="11">
+        <v>-0.23</v>
+      </c>
+      <c r="P18" s="11">
+        <v>1.58</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>1</v>
@@ -738,23 +2745,25 @@
       <c r="D20" s="1">
         <v>3</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
         <v>4</v>
       </c>
-      <c r="F20" s="1">
+      <c r="H20" s="1">
         <v>5</v>
       </c>
-      <c r="G20" s="1">
+      <c r="I20" s="1">
         <v>6</v>
       </c>
-      <c r="H20" s="1">
+      <c r="J20" s="1">
         <v>7</v>
       </c>
-      <c r="I20" s="1">
+      <c r="K20" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -767,12 +2776,8 @@
       <c r="D21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
         <v>0</v>
       </c>
@@ -782,8 +2787,14 @@
       <c r="I21" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -796,14 +2807,10 @@
       <c r="D22" s="4">
         <v>6</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
         <v>6</v>
-      </c>
-      <c r="F22" s="4">
-        <v>11</v>
-      </c>
-      <c r="G22" s="4">
-        <v>11</v>
       </c>
       <c r="H22" s="4">
         <v>11</v>
@@ -811,8 +2818,14 @@
       <c r="I22" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="4">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -825,23 +2838,25 @@
       <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -851,8 +2866,10 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>9</v>
@@ -863,23 +2880,25 @@
       <c r="D25" s="1">
         <v>11</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
         <v>12</v>
       </c>
-      <c r="F25" s="1">
+      <c r="H25" s="1">
         <v>13</v>
       </c>
-      <c r="G25" s="1">
+      <c r="I25" s="1">
         <v>14</v>
       </c>
-      <c r="H25" s="1">
+      <c r="J25" s="1">
         <v>15</v>
       </c>
-      <c r="I25" s="1">
+      <c r="K25" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,12 +2911,8 @@
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
         <v>5</v>
       </c>
@@ -907,8 +2922,14 @@
       <c r="I26" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,14 +2942,10 @@
       <c r="D27" s="4">
         <v>6</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
         <v>6</v>
-      </c>
-      <c r="F27" s="4">
-        <v>11</v>
-      </c>
-      <c r="G27" s="4">
-        <v>11</v>
       </c>
       <c r="H27" s="4">
         <v>11</v>
@@ -936,8 +2953,14 @@
       <c r="I27" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="4">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,24 +2973,48 @@
       <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="T7" r:id="rId1" xr:uid="{6073D5B9-973F-4AD5-9FF3-E1F7453687A0}"/>
+    <hyperlink ref="T3" r:id="rId2" xr:uid="{3B360ABD-6B06-4AF7-9ED9-111B14112B1F}"/>
+    <hyperlink ref="T4" r:id="rId3" xr:uid="{311D03A5-1863-456D-9C4E-7B75F8147362}"/>
+    <hyperlink ref="T5" r:id="rId4" xr:uid="{1B83CCB2-7795-40B3-98B5-D5E730D4206B}"/>
+    <hyperlink ref="T6" r:id="rId5" xr:uid="{F50CC0C3-7FA4-4818-8BDE-484D35E104C2}"/>
+    <hyperlink ref="T8" r:id="rId6" xr:uid="{CFC35985-A6A4-49A0-9103-1B373693F1D2}"/>
+    <hyperlink ref="T11" r:id="rId7" xr:uid="{6B0D8177-0ECD-48DC-8425-E122EB83A2C3}"/>
+    <hyperlink ref="T12" r:id="rId8" xr:uid="{15B84114-40B7-42AC-A990-C5A1A2D23FB1}"/>
+    <hyperlink ref="T14" r:id="rId9" xr:uid="{622A3EC3-9300-4092-A082-38B0B38D5617}"/>
+    <hyperlink ref="T15" r:id="rId10" xr:uid="{750F9486-F581-46CC-8B09-8E6FCC9E7428}"/>
+    <hyperlink ref="T16" r:id="rId11" xr:uid="{63FA826C-777B-496D-BD34-BD90598ACEEE}"/>
+    <hyperlink ref="T17" r:id="rId12" xr:uid="{1B66B0A8-6A91-43B9-9CCD-48330BC92F69}"/>
+    <hyperlink ref="T18" r:id="rId13" xr:uid="{3032AF38-8247-4F02-88AC-7E8C6979A033}"/>
+    <hyperlink ref="T9" r:id="rId14" xr:uid="{F22F6BB2-8037-464A-AB43-70CEE7DD78E7}"/>
+    <hyperlink ref="T10" r:id="rId15" xr:uid="{9356E43C-397C-4164-B39A-A4F3C3DA8934}"/>
+    <hyperlink ref="T13" r:id="rId16" xr:uid="{F2E1E623-ECFF-4D05-8642-D1DC034F56E3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/documentation/writeUp/evaluationJobs.xlsx
+++ b/documentation/writeUp/evaluationJobs.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\projects\clusterColombia\climacolombia\documentation\writeUp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7D0C9CA5-3659-4567-9D76-6EF27F1EA926}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{254F9303-679F-4E1B-A3C3-21F2D4D1BD1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{DC76DEBC-A1F9-45F2-A205-10806F0ABE5F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="2" xr2:uid="{DC76DEBC-A1F9-45F2-A205-10806F0ABE5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="71">
   <si>
     <t>KM</t>
   </si>
@@ -100,12 +101,6 @@
     <t>per sec</t>
   </si>
   <si>
-    <t>analysis</t>
-  </si>
-  <si>
-    <t>dashboard</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -239,6 +234,15 @@
   </si>
   <si>
     <t>http://lacunae.io/geovis2018_10_27_15_05_38/</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>overall rank</t>
   </si>
 </sst>
 </file>
@@ -246,9 +250,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +299,32 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -310,7 +340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -407,12 +437,387 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -421,7 +826,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -432,8 +837,19 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,17 +862,103 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -507,7 +1009,7 @@
     <cacheField name="total secs" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1648" maxValue="4242"/>
     </cacheField>
-    <cacheField name="$" numFmtId="172">
+    <cacheField name="$" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.3067111111111111" maxValue="0.78948333333333343"/>
     </cacheField>
     <cacheField name="sil" numFmtId="0">
@@ -792,7 +1294,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8220A296-A18E-454C-BAA6-84CDAD8FFF81}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8220A296-A18E-454C-BAA6-84CDAD8FFF81}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -827,7 +1329,7 @@
     </pivotField>
     <pivotField numFmtId="2" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="172" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -1232,7 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D958AE5-8B60-4C50-BFC1-A0CF9128626B}">
   <dimension ref="A3:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1247,27 +1749,27 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="8">
         <v>8.4600000000000009</v>
@@ -1287,7 +1789,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8">
         <v>5.84</v>
@@ -1307,7 +1809,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="8">
         <v>5.04</v>
@@ -1327,7 +1829,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="8">
         <v>4.4000000000000004</v>
@@ -1347,7 +1849,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="8">
         <v>4.1399999999999997</v>
@@ -1367,7 +1869,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="8">
         <v>4.13</v>
@@ -1387,7 +1889,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="8">
         <v>4</v>
@@ -1407,7 +1909,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="8">
         <v>3.8</v>
@@ -1427,7 +1929,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="8">
         <v>3.53</v>
@@ -1447,7 +1949,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="8">
         <v>2.93</v>
@@ -1467,7 +1969,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="8">
         <v>2.92</v>
@@ -1487,7 +1989,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" s="8">
         <v>2.92</v>
@@ -1507,7 +2009,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="8">
         <v>2.85</v>
@@ -1527,7 +2029,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="8">
         <v>2.78</v>
@@ -1547,7 +2049,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="8">
         <v>2.65</v>
@@ -1567,7 +2069,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" s="8">
         <v>2.56</v>
@@ -1587,7 +2089,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="8">
         <v>62.95</v>
@@ -1612,59 +2114,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC85AE9-E338-486B-9FD4-D48A83E178DE}">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="12" width="5.7109375" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="5.7109375" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" customWidth="1"/>
-    <col min="20" max="20" width="44" customWidth="1"/>
-    <col min="21" max="21" width="22.140625" customWidth="1"/>
-    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="20" width="5.7109375" customWidth="1"/>
+    <col min="22" max="27" width="6" customWidth="1"/>
+    <col min="28" max="28" width="44" customWidth="1"/>
+    <col min="29" max="29" width="22.140625" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="17" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" t="s">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="43.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -1675,55 +2170,58 @@
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="U2" t="s">
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="AC2" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="5">
+      <c r="AD2" s="5">
         <v>0.67</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AE2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1737,17 +2235,17 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3" s="12">
         <f>G3/60</f>
         <v>28.6</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="20">
         <v>1716</v>
       </c>
       <c r="H3" s="15">
-        <f>F3*$V$3</f>
+        <f>F3*$AD$3</f>
         <v>0.31936666666666669</v>
       </c>
       <c r="I3" s="11">
@@ -1777,24 +2275,41 @@
       <c r="Q3" s="11">
         <v>1.36</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3">
-        <f>V2/60</f>
+      <c r="R3" s="30">
+        <f>RANK(I3,I$3:I$18)</f>
+        <v>5</v>
+      </c>
+      <c r="S3" s="30">
+        <f>RANK(J3,J$3:J$18)</f>
+        <v>9</v>
+      </c>
+      <c r="T3" s="30"/>
+      <c r="W3" s="30">
+        <f>RANK(N3,N$3:N$18)</f>
+        <v>5</v>
+      </c>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30">
+        <f>RANK(Q3,Q$3:Q$18)</f>
+        <v>11</v>
+      </c>
+      <c r="AA3" s="30">
+        <f>SUM(R3:Z3)</f>
+        <v>30</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD3">
+        <f>AD2/60</f>
         <v>1.1166666666666667E-2</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AE3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1805,17 +2320,17 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="12">
         <f>G4/60</f>
         <v>33.18333333333333</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="20">
         <v>1991</v>
       </c>
       <c r="H4" s="15">
-        <f>F4*$V$3</f>
+        <f>F4*$AD$3</f>
         <v>0.37054722222222219</v>
       </c>
       <c r="I4" s="11">
@@ -1845,24 +2360,41 @@
       <c r="Q4" s="11">
         <v>3.23</v>
       </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4">
-        <f>V3/60</f>
+      <c r="R4" s="30">
+        <f>RANK(I4,I$3:I$18)</f>
+        <v>5</v>
+      </c>
+      <c r="S4" s="30">
+        <f>RANK(J4,J$3:J$18)</f>
+        <v>7</v>
+      </c>
+      <c r="T4" s="30"/>
+      <c r="W4" s="30">
+        <f>RANK(N4,N$3:N$18)</f>
+        <v>3</v>
+      </c>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30">
+        <f>RANK(Q4,Q$3:Q$18)</f>
+        <v>3</v>
+      </c>
+      <c r="AA4" s="30">
+        <f>SUM(R4:Z4)</f>
+        <v>18</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD4">
+        <f>AD3/60</f>
         <v>1.8611111111111112E-4</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AE4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1873,17 +2405,17 @@
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" ref="F5:F18" si="0">G5/60</f>
+        <f>G5/60</f>
         <v>44.733333333333334</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="20">
         <v>2684</v>
       </c>
       <c r="H5" s="15">
-        <f t="shared" ref="H5:H18" si="1">F5*$V$3</f>
+        <f>F5*$AD$3</f>
         <v>0.49952222222222226</v>
       </c>
       <c r="I5" s="11">
@@ -1913,20 +2445,37 @@
       <c r="Q5" s="11">
         <v>1.47</v>
       </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R5" s="30">
+        <f>RANK(I5,I$3:I$18)</f>
+        <v>12</v>
+      </c>
+      <c r="S5" s="30">
+        <f>RANK(J5,J$3:J$18)</f>
+        <v>11</v>
+      </c>
+      <c r="T5" s="30"/>
+      <c r="W5" s="30">
+        <f>RANK(N5,N$3:N$18)</f>
+        <v>10</v>
+      </c>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30">
+        <f>RANK(Q5,Q$3:Q$18)</f>
+        <v>7</v>
+      </c>
+      <c r="AA5" s="30">
+        <f>SUM(R5:Z5)</f>
+        <v>40</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1937,17 +2486,17 @@
         <v>4</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="12">
-        <f t="shared" si="0"/>
+        <f>G6/60</f>
         <v>45.43333333333333</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="20">
         <v>2726</v>
       </c>
       <c r="H6" s="15">
-        <f t="shared" si="1"/>
+        <f>F6*$AD$3</f>
         <v>0.50733888888888889</v>
       </c>
       <c r="I6" s="11">
@@ -1977,20 +2526,37 @@
       <c r="Q6" s="11">
         <v>1.46</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R6" s="30">
+        <f>RANK(I6,I$3:I$18)</f>
+        <v>15</v>
+      </c>
+      <c r="S6" s="30">
+        <f>RANK(J6,J$3:J$18)</f>
+        <v>13</v>
+      </c>
+      <c r="T6" s="30"/>
+      <c r="W6" s="30">
+        <f>RANK(N6,N$3:N$18)</f>
+        <v>11</v>
+      </c>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30">
+        <f>RANK(Q6,Q$3:Q$18)</f>
+        <v>8</v>
+      </c>
+      <c r="AA6" s="30">
+        <f>SUM(R6:Z6)</f>
+        <v>47</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2004,17 +2570,17 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="12">
         <f>G7/60</f>
         <v>27.466666666666665</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="20">
         <v>1648</v>
       </c>
       <c r="H7" s="15">
-        <f>F7*$V$3</f>
+        <f>F7*$AD$3</f>
         <v>0.3067111111111111</v>
       </c>
       <c r="I7" s="11">
@@ -2044,17 +2610,34 @@
       <c r="Q7" s="11">
         <v>1.36</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R7" s="30">
+        <f>RANK(I7,I$3:I$18)</f>
+        <v>5</v>
+      </c>
+      <c r="S7" s="30">
+        <f>RANK(J7,J$3:J$18)</f>
+        <v>8</v>
+      </c>
+      <c r="T7" s="30"/>
+      <c r="W7" s="30">
+        <f>RANK(N7,N$3:N$18)</f>
+        <v>5</v>
+      </c>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30">
+        <f>RANK(Q7,Q$3:Q$18)</f>
+        <v>11</v>
+      </c>
+      <c r="AA7" s="30">
+        <f>SUM(R7:Z7)</f>
+        <v>29</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2065,17 +2648,17 @@
         <v>2</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="12">
         <f>G8/60</f>
         <v>43.366666666666667</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="20">
         <v>2602</v>
       </c>
       <c r="H8" s="15">
-        <f>F8*$V$3</f>
+        <f>F8*$AD$3</f>
         <v>0.48426111111111114</v>
       </c>
       <c r="I8" s="11">
@@ -2105,17 +2688,34 @@
       <c r="Q8" s="11">
         <v>3.25</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="30">
+        <f>RANK(I8,I$3:I$18)</f>
+        <v>8</v>
+      </c>
+      <c r="S8" s="30">
+        <f>RANK(J8,J$3:J$18)</f>
+        <v>15</v>
+      </c>
+      <c r="T8" s="30"/>
+      <c r="W8" s="30">
+        <f>RANK(N8,N$3:N$18)</f>
         <v>1</v>
       </c>
-      <c r="S8">
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30">
+        <f>RANK(Q8,Q$3:Q$18)</f>
         <v>1</v>
       </c>
-      <c r="T8" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA8" s="30">
+        <f>SUM(R8:Z8)</f>
+        <v>25</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2126,17 +2726,17 @@
         <v>3</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F9" s="12">
         <f>G9/60</f>
         <v>45.666666666666664</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="21">
         <v>2740</v>
       </c>
       <c r="H9" s="15">
-        <f>F9*$V$3</f>
+        <f>F9*$AD$3</f>
         <v>0.50994444444444442</v>
       </c>
       <c r="I9" s="11">
@@ -2166,17 +2766,34 @@
       <c r="Q9" s="11">
         <v>1.37</v>
       </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R9" s="30">
+        <f>RANK(I9,I$3:I$18)</f>
+        <v>13</v>
+      </c>
+      <c r="S9" s="30">
+        <f>RANK(J9,J$3:J$18)</f>
+        <v>14</v>
+      </c>
+      <c r="T9" s="30"/>
+      <c r="W9" s="30">
+        <f>RANK(N9,N$3:N$18)</f>
+        <v>12</v>
+      </c>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30">
+        <f>RANK(Q9,Q$3:Q$18)</f>
+        <v>10</v>
+      </c>
+      <c r="AA9" s="30">
+        <f>SUM(R9:Z9)</f>
+        <v>49</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2187,17 +2804,17 @@
         <v>4</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="12">
         <f>G10/60</f>
         <v>45.31666666666667</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="20">
         <v>2719</v>
       </c>
       <c r="H10" s="15">
-        <f>F10*$V$3</f>
+        <f>F10*$AD$3</f>
         <v>0.50603611111111113</v>
       </c>
       <c r="I10" s="11">
@@ -2227,17 +2844,34 @@
       <c r="Q10" s="11">
         <v>1.74</v>
       </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R10" s="30">
+        <f>RANK(I10,I$3:I$18)</f>
+        <v>15</v>
+      </c>
+      <c r="S10" s="30">
+        <f>RANK(J10,J$3:J$18)</f>
+        <v>16</v>
+      </c>
+      <c r="T10" s="30"/>
+      <c r="W10" s="30">
+        <f>RANK(N10,N$3:N$18)</f>
+        <v>5</v>
+      </c>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30">
+        <f>RANK(Q10,Q$3:Q$18)</f>
+        <v>5</v>
+      </c>
+      <c r="AA10" s="30">
+        <f>SUM(R10:Z10)</f>
+        <v>41</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2251,17 +2885,17 @@
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="12">
         <f>G11/60</f>
         <v>43.716666666666669</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="20">
         <v>2623</v>
       </c>
       <c r="H11" s="15">
-        <f>F11*$V$3</f>
+        <f>F11*$AD$3</f>
         <v>0.48816944444444449</v>
       </c>
       <c r="I11" s="11">
@@ -2291,17 +2925,34 @@
       <c r="Q11" s="11">
         <v>1.27</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="30">
+        <f>RANK(I11,I$3:I$18)</f>
         <v>1</v>
       </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S11" s="30">
+        <f>RANK(J11,J$3:J$18)</f>
+        <v>2</v>
+      </c>
+      <c r="T11" s="30"/>
+      <c r="W11" s="30">
+        <f>RANK(N11,N$3:N$18)</f>
+        <v>8</v>
+      </c>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30">
+        <f>RANK(Q11,Q$3:Q$18)</f>
+        <v>15</v>
+      </c>
+      <c r="AA11" s="30">
+        <f>SUM(R11:Z11)</f>
+        <v>26</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2312,17 +2963,17 @@
         <v>2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" s="12">
         <f>G12/60</f>
         <v>44.333333333333336</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="20">
         <v>2660</v>
       </c>
       <c r="H12" s="15">
-        <f>F12*$V$3</f>
+        <f>F12*$AD$3</f>
         <v>0.49505555555555558</v>
       </c>
       <c r="I12" s="11">
@@ -2352,17 +3003,34 @@
       <c r="Q12" s="11">
         <v>3.23</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="30">
+        <f>RANK(I12,I$3:I$18)</f>
         <v>1</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="30">
+        <f>RANK(J12,J$3:J$18)</f>
         <v>1</v>
       </c>
-      <c r="T12" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T12" s="30"/>
+      <c r="W12" s="30">
+        <f>RANK(N12,N$3:N$18)</f>
+        <v>2</v>
+      </c>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30">
+        <f>RANK(Q12,Q$3:Q$18)</f>
+        <v>3</v>
+      </c>
+      <c r="AA12" s="30">
+        <f>SUM(R12:Z12)</f>
+        <v>7</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2373,17 +3041,17 @@
         <v>3</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" s="12">
         <f>G13/60</f>
         <v>70.7</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="20">
         <v>4242</v>
       </c>
       <c r="H13" s="15">
-        <f>F13*$V$3</f>
+        <f>F13*$AD$3</f>
         <v>0.78948333333333343</v>
       </c>
       <c r="I13" s="11">
@@ -2413,17 +3081,34 @@
       <c r="Q13" s="11">
         <v>1.29</v>
       </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R13" s="30">
+        <f>RANK(I13,I$3:I$18)</f>
+        <v>8</v>
+      </c>
+      <c r="S13" s="30">
+        <f>RANK(J13,J$3:J$18)</f>
+        <v>4</v>
+      </c>
+      <c r="T13" s="30"/>
+      <c r="W13" s="30">
+        <f>RANK(N13,N$3:N$18)</f>
+        <v>15</v>
+      </c>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30">
+        <f>RANK(Q13,Q$3:Q$18)</f>
+        <v>14</v>
+      </c>
+      <c r="AA13" s="30">
+        <f>SUM(R13:Z13)</f>
+        <v>41</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2434,17 +3119,17 @@
         <v>4</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="12">
         <f>G14/60</f>
         <v>67.683333333333337</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="20">
         <v>4061</v>
       </c>
       <c r="H14" s="15">
-        <f>F14*$V$3</f>
+        <f>F14*$AD$3</f>
         <v>0.75579722222222223</v>
       </c>
       <c r="I14" s="11">
@@ -2474,17 +3159,34 @@
       <c r="Q14" s="11">
         <v>1.39</v>
       </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R14" s="30">
+        <f>RANK(I14,I$3:I$18)</f>
+        <v>11</v>
+      </c>
+      <c r="S14" s="30">
+        <f>RANK(J14,J$3:J$18)</f>
+        <v>6</v>
+      </c>
+      <c r="T14" s="30"/>
+      <c r="W14" s="30">
+        <f>RANK(N14,N$3:N$18)</f>
+        <v>14</v>
+      </c>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30">
+        <f>RANK(Q14,Q$3:Q$18)</f>
+        <v>9</v>
+      </c>
+      <c r="AA14" s="30">
+        <f>SUM(R14:Z14)</f>
+        <v>40</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2498,17 +3200,17 @@
         <v>1</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="0"/>
+        <f>G15/60</f>
         <v>43.733333333333334</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="20">
         <v>2624</v>
       </c>
       <c r="H15" s="15">
-        <f t="shared" si="1"/>
+        <f>F15*$AD$3</f>
         <v>0.48835555555555554</v>
       </c>
       <c r="I15" s="11">
@@ -2538,17 +3240,34 @@
       <c r="Q15" s="11">
         <v>1.3</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="30">
+        <f>RANK(I15,I$3:I$18)</f>
         <v>1</v>
       </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S15" s="30">
+        <f>RANK(J15,J$3:J$18)</f>
+        <v>5</v>
+      </c>
+      <c r="T15" s="30"/>
+      <c r="W15" s="30">
+        <f>RANK(N15,N$3:N$18)</f>
+        <v>9</v>
+      </c>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30">
+        <f>RANK(Q15,Q$3:Q$18)</f>
+        <v>13</v>
+      </c>
+      <c r="AA15" s="30">
+        <f>SUM(R15:Z15)</f>
+        <v>28</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2559,17 +3278,17 @@
         <v>2</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" si="0"/>
+        <f>G16/60</f>
         <v>65.3</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="20">
         <v>3918</v>
       </c>
       <c r="H16" s="15">
-        <f t="shared" si="1"/>
+        <f>F16*$AD$3</f>
         <v>0.72918333333333329</v>
       </c>
       <c r="I16" s="11">
@@ -2599,17 +3318,34 @@
       <c r="Q16" s="11">
         <v>3.24</v>
       </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R16" s="30">
+        <f>RANK(I16,I$3:I$18)</f>
+        <v>4</v>
+      </c>
+      <c r="S16" s="30">
+        <f>RANK(J16,J$3:J$18)</f>
+        <v>3</v>
+      </c>
+      <c r="T16" s="30"/>
+      <c r="W16" s="30">
+        <f>RANK(N16,N$3:N$18)</f>
+        <v>3</v>
+      </c>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30">
+        <f>RANK(Q16,Q$3:Q$18)</f>
+        <v>2</v>
+      </c>
+      <c r="AA16" s="30">
+        <f>SUM(R16:Z16)</f>
+        <v>12</v>
+      </c>
+      <c r="AB16" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2620,17 +3356,17 @@
         <v>3</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="0"/>
+        <f>G17/60</f>
         <v>68.8</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="20">
         <v>4128</v>
       </c>
       <c r="H17" s="15">
-        <f t="shared" si="1"/>
+        <f>F17*$AD$3</f>
         <v>0.76826666666666665</v>
       </c>
       <c r="I17" s="11">
@@ -2660,17 +3396,34 @@
       <c r="Q17" s="11">
         <v>1.27</v>
       </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R17" s="30">
+        <f>RANK(I17,I$3:I$18)</f>
+        <v>10</v>
+      </c>
+      <c r="S17" s="30">
+        <f>RANK(J17,J$3:J$18)</f>
+        <v>10</v>
+      </c>
+      <c r="T17" s="30"/>
+      <c r="W17" s="30">
+        <f>RANK(N17,N$3:N$18)</f>
+        <v>16</v>
+      </c>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30">
+        <f>RANK(Q17,Q$3:Q$18)</f>
+        <v>15</v>
+      </c>
+      <c r="AA17" s="30">
+        <f>SUM(R17:Z17)</f>
+        <v>51</v>
+      </c>
+      <c r="AB17" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2681,17 +3434,17 @@
         <v>4</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="0"/>
+        <f>G18/60</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="20">
         <v>2500</v>
       </c>
       <c r="H18" s="15">
-        <f t="shared" si="1"/>
+        <f>F18*$AD$3</f>
         <v>0.46527777777777773</v>
       </c>
       <c r="I18" s="11">
@@ -2721,20 +3474,37 @@
       <c r="Q18" s="11">
         <v>1.6</v>
       </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R18" s="30">
+        <f>RANK(I18,I$3:I$18)</f>
+        <v>14</v>
+      </c>
+      <c r="S18" s="30">
+        <f>RANK(J18,J$3:J$18)</f>
+        <v>11</v>
+      </c>
+      <c r="T18" s="30"/>
+      <c r="W18" s="30">
+        <f>RANK(N18,N$3:N$18)</f>
+        <v>13</v>
+      </c>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30">
+        <f>RANK(Q18,Q$3:Q$18)</f>
+        <v>6</v>
+      </c>
+      <c r="AA18" s="30">
+        <f>SUM(R18:Z18)</f>
+        <v>44</v>
+      </c>
+      <c r="AB18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>1</v>
@@ -2763,7 +3533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2794,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -2825,7 +3595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -2856,7 +3626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2869,7 +3639,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>9</v>
@@ -2898,7 +3668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -2929,7 +3699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -2960,7 +3730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -2997,24 +3767,1325 @@
     <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="T7" r:id="rId1" xr:uid="{6073D5B9-973F-4AD5-9FF3-E1F7453687A0}"/>
-    <hyperlink ref="T3" r:id="rId2" xr:uid="{3B360ABD-6B06-4AF7-9ED9-111B14112B1F}"/>
-    <hyperlink ref="T4" r:id="rId3" xr:uid="{311D03A5-1863-456D-9C4E-7B75F8147362}"/>
-    <hyperlink ref="T5" r:id="rId4" xr:uid="{1B83CCB2-7795-40B3-98B5-D5E730D4206B}"/>
-    <hyperlink ref="T6" r:id="rId5" xr:uid="{F50CC0C3-7FA4-4818-8BDE-484D35E104C2}"/>
-    <hyperlink ref="T8" r:id="rId6" xr:uid="{CFC35985-A6A4-49A0-9103-1B373693F1D2}"/>
-    <hyperlink ref="T11" r:id="rId7" xr:uid="{6B0D8177-0ECD-48DC-8425-E122EB83A2C3}"/>
-    <hyperlink ref="T12" r:id="rId8" xr:uid="{15B84114-40B7-42AC-A990-C5A1A2D23FB1}"/>
-    <hyperlink ref="T14" r:id="rId9" xr:uid="{622A3EC3-9300-4092-A082-38B0B38D5617}"/>
-    <hyperlink ref="T15" r:id="rId10" xr:uid="{750F9486-F581-46CC-8B09-8E6FCC9E7428}"/>
-    <hyperlink ref="T16" r:id="rId11" xr:uid="{63FA826C-777B-496D-BD34-BD90598ACEEE}"/>
-    <hyperlink ref="T17" r:id="rId12" xr:uid="{1B66B0A8-6A91-43B9-9CCD-48330BC92F69}"/>
-    <hyperlink ref="T18" r:id="rId13" xr:uid="{3032AF38-8247-4F02-88AC-7E8C6979A033}"/>
-    <hyperlink ref="T9" r:id="rId14" xr:uid="{F22F6BB2-8037-464A-AB43-70CEE7DD78E7}"/>
-    <hyperlink ref="T10" r:id="rId15" xr:uid="{9356E43C-397C-4164-B39A-A4F3C3DA8934}"/>
-    <hyperlink ref="T13" r:id="rId16" xr:uid="{F2E1E623-ECFF-4D05-8642-D1DC034F56E3}"/>
+    <hyperlink ref="AB7" r:id="rId1" xr:uid="{6073D5B9-973F-4AD5-9FF3-E1F7453687A0}"/>
+    <hyperlink ref="AB3" r:id="rId2" xr:uid="{3B360ABD-6B06-4AF7-9ED9-111B14112B1F}"/>
+    <hyperlink ref="AB4" r:id="rId3" xr:uid="{311D03A5-1863-456D-9C4E-7B75F8147362}"/>
+    <hyperlink ref="AB5" r:id="rId4" xr:uid="{1B83CCB2-7795-40B3-98B5-D5E730D4206B}"/>
+    <hyperlink ref="AB6" r:id="rId5" xr:uid="{F50CC0C3-7FA4-4818-8BDE-484D35E104C2}"/>
+    <hyperlink ref="AB8" r:id="rId6" xr:uid="{CFC35985-A6A4-49A0-9103-1B373693F1D2}"/>
+    <hyperlink ref="AB11" r:id="rId7" xr:uid="{6B0D8177-0ECD-48DC-8425-E122EB83A2C3}"/>
+    <hyperlink ref="AB12" r:id="rId8" xr:uid="{15B84114-40B7-42AC-A990-C5A1A2D23FB1}"/>
+    <hyperlink ref="AB14" r:id="rId9" xr:uid="{622A3EC3-9300-4092-A082-38B0B38D5617}"/>
+    <hyperlink ref="AB15" r:id="rId10" xr:uid="{750F9486-F581-46CC-8B09-8E6FCC9E7428}"/>
+    <hyperlink ref="AB16" r:id="rId11" xr:uid="{63FA826C-777B-496D-BD34-BD90598ACEEE}"/>
+    <hyperlink ref="AB17" r:id="rId12" xr:uid="{1B66B0A8-6A91-43B9-9CCD-48330BC92F69}"/>
+    <hyperlink ref="AB18" r:id="rId13" xr:uid="{3032AF38-8247-4F02-88AC-7E8C6979A033}"/>
+    <hyperlink ref="AB9" r:id="rId14" xr:uid="{F22F6BB2-8037-464A-AB43-70CEE7DD78E7}"/>
+    <hyperlink ref="AB10" r:id="rId15" xr:uid="{9356E43C-397C-4164-B39A-A4F3C3DA8934}"/>
+    <hyperlink ref="AB13" r:id="rId16" xr:uid="{F2E1E623-ECFF-4D05-8642-D1DC034F56E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CFE6D5-4755-44B2-BCD8-E835F887EBB8}">
+  <dimension ref="A1:AB18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:T18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+    </row>
+    <row r="2" spans="1:28" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="83">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="49">
+        <f>D3/60</f>
+        <v>43.716666666666669</v>
+      </c>
+      <c r="D3" s="50">
+        <v>2623</v>
+      </c>
+      <c r="E3" s="51">
+        <f>C3*Sheet1!$AD$3</f>
+        <v>0.48816944444444449</v>
+      </c>
+      <c r="F3" s="52">
+        <v>0.99</v>
+      </c>
+      <c r="G3" s="53">
+        <f>RANK(F3,F$3:F$18)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="54">
+        <v>5.84</v>
+      </c>
+      <c r="I3" s="55">
+        <f>RANK(H3,H$3:H$18)</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="52">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="K3" s="53">
+        <f>RANK(J3,J$3:J18,1)</f>
+        <v>5</v>
+      </c>
+      <c r="L3" s="54">
+        <v>1.28</v>
+      </c>
+      <c r="M3" s="56">
+        <v>2.92</v>
+      </c>
+      <c r="N3" s="56">
+        <v>3.18</v>
+      </c>
+      <c r="O3" s="55">
+        <f>RANK(N3,N$3:N$18,1)</f>
+        <v>9</v>
+      </c>
+      <c r="P3" s="57">
+        <v>-0.16</v>
+      </c>
+      <c r="Q3" s="58">
+        <v>1.26</v>
+      </c>
+      <c r="R3" s="58">
+        <v>1.27</v>
+      </c>
+      <c r="S3" s="59">
+        <f>RANK(R3,R$3:R$18,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="86">
+        <f>G3+I3+K3+O3+S3</f>
+        <v>18</v>
+      </c>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AB3" s="30"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="83">
+        <v>2</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="61">
+        <f>D4/60</f>
+        <v>43.733333333333334</v>
+      </c>
+      <c r="D4" s="62">
+        <v>2624</v>
+      </c>
+      <c r="E4" s="63">
+        <f>C4*Sheet1!$AD$3</f>
+        <v>0.48835555555555554</v>
+      </c>
+      <c r="F4" s="64">
+        <v>0.99</v>
+      </c>
+      <c r="G4" s="65">
+        <f>RANK(F4,F$3:F$18)</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="66">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="I4" s="67">
+        <f>RANK(H4,H$3:H$18)</f>
+        <v>5</v>
+      </c>
+      <c r="J4" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="K4" s="65">
+        <f>RANK(J4,J$3:J19,1)</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="66">
+        <v>1.33</v>
+      </c>
+      <c r="M4" s="68">
+        <v>2.88</v>
+      </c>
+      <c r="N4" s="68">
+        <v>3.17</v>
+      </c>
+      <c r="O4" s="67">
+        <f>RANK(N4,N$3:N$18,1)</f>
+        <v>8</v>
+      </c>
+      <c r="P4" s="64">
+        <v>-0.2</v>
+      </c>
+      <c r="Q4" s="69">
+        <v>1.29</v>
+      </c>
+      <c r="R4" s="69">
+        <v>1.3</v>
+      </c>
+      <c r="S4" s="70">
+        <f>RANK(R4,R$3:R$18,1)</f>
+        <v>4</v>
+      </c>
+      <c r="T4" s="87">
+        <f>G4+I4+K4+O4+S4</f>
+        <v>24</v>
+      </c>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AB4" s="30"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="83">
+        <v>3</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="61">
+        <f>D5/60</f>
+        <v>70.7</v>
+      </c>
+      <c r="D5" s="62">
+        <v>4242</v>
+      </c>
+      <c r="E5" s="63">
+        <f>C5*Sheet1!$AD$3</f>
+        <v>0.78948333333333343</v>
+      </c>
+      <c r="F5" s="64">
+        <v>0.93</v>
+      </c>
+      <c r="G5" s="65">
+        <f>RANK(F5,F$3:F$18)</f>
+        <v>8</v>
+      </c>
+      <c r="H5" s="66">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I5" s="67">
+        <f>RANK(H5,H$3:H$18)</f>
+        <v>4</v>
+      </c>
+      <c r="J5" s="64">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="K5" s="65">
+        <f>RANK(J5,J$3:J20,1)</f>
+        <v>9</v>
+      </c>
+      <c r="L5" s="66">
+        <v>0.49</v>
+      </c>
+      <c r="M5" s="68">
+        <v>2.35</v>
+      </c>
+      <c r="N5" s="68">
+        <v>2.4</v>
+      </c>
+      <c r="O5" s="67">
+        <f>RANK(N5,N$3:N$18,1)</f>
+        <v>2</v>
+      </c>
+      <c r="P5" s="64">
+        <v>-0.09</v>
+      </c>
+      <c r="Q5" s="69">
+        <v>1.29</v>
+      </c>
+      <c r="R5" s="69">
+        <v>1.29</v>
+      </c>
+      <c r="S5" s="70">
+        <f>RANK(R5,R$3:R$18,1)</f>
+        <v>3</v>
+      </c>
+      <c r="T5" s="87">
+        <f>G5+I5+K5+O5+S5</f>
+        <v>26</v>
+      </c>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AB5" s="30"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="83">
+        <v>4</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="61">
+        <f>D6/60</f>
+        <v>44.333333333333336</v>
+      </c>
+      <c r="D6" s="62">
+        <v>2660</v>
+      </c>
+      <c r="E6" s="63">
+        <f>C6*Sheet1!$AD$3</f>
+        <v>0.49505555555555558</v>
+      </c>
+      <c r="F6" s="64">
+        <v>0.99</v>
+      </c>
+      <c r="G6" s="65">
+        <f>RANK(F6,F$3:F$18)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="66">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="I6" s="67">
+        <f>RANK(H6,H$3:H$18)</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="64">
+        <v>0.68</v>
+      </c>
+      <c r="K6" s="65">
+        <f>RANK(J6,J$3:J21,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="66">
+        <v>1.93</v>
+      </c>
+      <c r="M6" s="68">
+        <v>5.28</v>
+      </c>
+      <c r="N6" s="68">
+        <v>5.62</v>
+      </c>
+      <c r="O6" s="67">
+        <f>RANK(N6,N$3:N$18,1)</f>
+        <v>15</v>
+      </c>
+      <c r="P6" s="64">
+        <v>-0.65</v>
+      </c>
+      <c r="Q6" s="69">
+        <v>3.17</v>
+      </c>
+      <c r="R6" s="69">
+        <v>3.23</v>
+      </c>
+      <c r="S6" s="70">
+        <f>RANK(R6,R$3:R$18,1)</f>
+        <v>13</v>
+      </c>
+      <c r="T6" s="87">
+        <f>G6+I6+K6+O6+S6</f>
+        <v>31</v>
+      </c>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AB6" s="30"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="83">
+        <v>5</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="61">
+        <f>D7/60</f>
+        <v>68.8</v>
+      </c>
+      <c r="D7" s="62">
+        <v>4128</v>
+      </c>
+      <c r="E7" s="63">
+        <f>C7*Sheet1!$AD$3</f>
+        <v>0.76826666666666665</v>
+      </c>
+      <c r="F7" s="64">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="65">
+        <f>RANK(F7,F$3:F$18)</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="66">
+        <v>2.93</v>
+      </c>
+      <c r="I7" s="67">
+        <f>RANK(H7,H$3:H$18)</f>
+        <v>10</v>
+      </c>
+      <c r="J7" s="64">
+        <v>21.43</v>
+      </c>
+      <c r="K7" s="65">
+        <f>RANK(J7,J$3:J22,1)</f>
+        <v>10</v>
+      </c>
+      <c r="L7" s="66">
+        <v>0.65</v>
+      </c>
+      <c r="M7" s="68">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="N7" s="68">
+        <v>2.17</v>
+      </c>
+      <c r="O7" s="67">
+        <f>RANK(N7,N$3:N$18,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="64">
+        <v>-0.18</v>
+      </c>
+      <c r="Q7" s="69">
+        <v>1.25</v>
+      </c>
+      <c r="R7" s="69">
+        <v>1.27</v>
+      </c>
+      <c r="S7" s="70">
+        <f>RANK(R7,R$3:R$18,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T7" s="87">
+        <f>G7+I7+K7+O7+S7</f>
+        <v>32</v>
+      </c>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AB7" s="30"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="83">
+        <v>6</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="61">
+        <f>D8/60</f>
+        <v>28.6</v>
+      </c>
+      <c r="D8" s="62">
+        <v>1716</v>
+      </c>
+      <c r="E8" s="63">
+        <f>C8*Sheet1!$AD$3</f>
+        <v>0.31936666666666669</v>
+      </c>
+      <c r="F8" s="64">
+        <v>0.97</v>
+      </c>
+      <c r="G8" s="65">
+        <f>RANK(F8,F$3:F$18)</f>
+        <v>5</v>
+      </c>
+      <c r="H8" s="66">
+        <v>3.53</v>
+      </c>
+      <c r="I8" s="67">
+        <f>RANK(H8,H$3:H$18)</f>
+        <v>9</v>
+      </c>
+      <c r="J8" s="64">
+        <v>7.6</v>
+      </c>
+      <c r="K8" s="65">
+        <f>RANK(J8,J$3:J23,1)</f>
+        <v>7</v>
+      </c>
+      <c r="L8" s="66">
+        <v>1.24</v>
+      </c>
+      <c r="M8" s="68">
+        <v>3.12</v>
+      </c>
+      <c r="N8" s="68">
+        <v>3.35</v>
+      </c>
+      <c r="O8" s="67">
+        <f>RANK(N8,N$3:N$18,1)</f>
+        <v>10</v>
+      </c>
+      <c r="P8" s="64">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="Q8" s="69">
+        <v>1.36</v>
+      </c>
+      <c r="R8" s="69">
+        <v>1.36</v>
+      </c>
+      <c r="S8" s="70">
+        <f>RANK(R8,R$3:R$18,1)</f>
+        <v>5</v>
+      </c>
+      <c r="T8" s="87">
+        <f>G8+I8+K8+O8+S8</f>
+        <v>36</v>
+      </c>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AB8" s="30"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="83">
+        <v>7</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="61">
+        <f>D9/60</f>
+        <v>27.466666666666665</v>
+      </c>
+      <c r="D9" s="62">
+        <v>1648</v>
+      </c>
+      <c r="E9" s="63">
+        <f>C9*Sheet1!$AD$3</f>
+        <v>0.3067111111111111</v>
+      </c>
+      <c r="F9" s="64">
+        <v>0.97</v>
+      </c>
+      <c r="G9" s="65">
+        <f>RANK(F9,F$3:F$18)</f>
+        <v>5</v>
+      </c>
+      <c r="H9" s="66">
+        <v>3.8</v>
+      </c>
+      <c r="I9" s="67">
+        <f>RANK(H9,H$3:H$18)</f>
+        <v>8</v>
+      </c>
+      <c r="J9" s="64">
+        <v>7.63</v>
+      </c>
+      <c r="K9" s="65">
+        <f>RANK(J9,J$3:J24,1)</f>
+        <v>8</v>
+      </c>
+      <c r="L9" s="66">
+        <v>1.41</v>
+      </c>
+      <c r="M9" s="68">
+        <v>3.04</v>
+      </c>
+      <c r="N9" s="68">
+        <v>3.35</v>
+      </c>
+      <c r="O9" s="67">
+        <f>RANK(N9,N$3:N$18,1)</f>
+        <v>10</v>
+      </c>
+      <c r="P9" s="64">
+        <v>-0.24</v>
+      </c>
+      <c r="Q9" s="69">
+        <v>1.34</v>
+      </c>
+      <c r="R9" s="69">
+        <v>1.36</v>
+      </c>
+      <c r="S9" s="70">
+        <f>RANK(R9,R$3:R$18,1)</f>
+        <v>5</v>
+      </c>
+      <c r="T9" s="87">
+        <f>G9+I9+K9+O9+S9</f>
+        <v>36</v>
+      </c>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AB9" s="30"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="83">
+        <v>8</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="61">
+        <f>D10/60</f>
+        <v>65.3</v>
+      </c>
+      <c r="D10" s="62">
+        <v>3918</v>
+      </c>
+      <c r="E10" s="63">
+        <f>C10*Sheet1!$AD$3</f>
+        <v>0.72918333333333329</v>
+      </c>
+      <c r="F10" s="64">
+        <v>0.98</v>
+      </c>
+      <c r="G10" s="65">
+        <f>RANK(F10,F$3:F$18)</f>
+        <v>4</v>
+      </c>
+      <c r="H10" s="66">
+        <v>5.04</v>
+      </c>
+      <c r="I10" s="67">
+        <f>RANK(H10,H$3:H$18)</f>
+        <v>3</v>
+      </c>
+      <c r="J10" s="64">
+        <v>0.83</v>
+      </c>
+      <c r="K10" s="65">
+        <f>RANK(J10,J$3:J25,1)</f>
+        <v>2</v>
+      </c>
+      <c r="L10" s="66">
+        <v>1.93</v>
+      </c>
+      <c r="M10" s="68">
+        <v>5.27</v>
+      </c>
+      <c r="N10" s="68">
+        <v>5.61</v>
+      </c>
+      <c r="O10" s="67">
+        <f>RANK(N10,N$3:N$18,1)</f>
+        <v>13</v>
+      </c>
+      <c r="P10" s="64">
+        <v>-0.66</v>
+      </c>
+      <c r="Q10" s="69">
+        <v>3.18</v>
+      </c>
+      <c r="R10" s="69">
+        <v>3.24</v>
+      </c>
+      <c r="S10" s="70">
+        <f>RANK(R10,R$3:R$18,1)</f>
+        <v>15</v>
+      </c>
+      <c r="T10" s="87">
+        <f>G10+I10+K10+O10+S10</f>
+        <v>37</v>
+      </c>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AB10" s="30"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="83">
+        <v>9</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="61">
+        <f>D11/60</f>
+        <v>67.683333333333337</v>
+      </c>
+      <c r="D11" s="62">
+        <v>4061</v>
+      </c>
+      <c r="E11" s="63">
+        <f>C11*Sheet1!$AD$3</f>
+        <v>0.75579722222222223</v>
+      </c>
+      <c r="F11" s="64">
+        <v>0.88</v>
+      </c>
+      <c r="G11" s="65">
+        <f>RANK(F11,F$3:F$18)</f>
+        <v>11</v>
+      </c>
+      <c r="H11" s="66">
+        <v>4.13</v>
+      </c>
+      <c r="I11" s="67">
+        <f>RANK(H11,H$3:H$18)</f>
+        <v>6</v>
+      </c>
+      <c r="J11" s="64">
+        <v>34.83</v>
+      </c>
+      <c r="K11" s="65">
+        <f>RANK(J11,J$3:J26,1)</f>
+        <v>12</v>
+      </c>
+      <c r="L11" s="66">
+        <v>0.6</v>
+      </c>
+      <c r="M11" s="68">
+        <v>2.7</v>
+      </c>
+      <c r="N11" s="68">
+        <v>2.77</v>
+      </c>
+      <c r="O11" s="67">
+        <f>RANK(N11,N$3:N$18,1)</f>
+        <v>3</v>
+      </c>
+      <c r="P11" s="64">
+        <v>-0.11</v>
+      </c>
+      <c r="Q11" s="69">
+        <v>1.39</v>
+      </c>
+      <c r="R11" s="69">
+        <v>1.39</v>
+      </c>
+      <c r="S11" s="70">
+        <f>RANK(R11,R$3:R$18,1)</f>
+        <v>8</v>
+      </c>
+      <c r="T11" s="87">
+        <f>G11+I11+K11+O11+S11</f>
+        <v>40</v>
+      </c>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AB11" s="30"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="83">
+        <v>10</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="61">
+        <f>D12/60</f>
+        <v>33.18333333333333</v>
+      </c>
+      <c r="D12" s="62">
+        <v>1991</v>
+      </c>
+      <c r="E12" s="63">
+        <f>C12*Sheet1!$AD$3</f>
+        <v>0.37054722222222219</v>
+      </c>
+      <c r="F12" s="64">
+        <v>0.97</v>
+      </c>
+      <c r="G12" s="65">
+        <f>RANK(F12,F$3:F$18)</f>
+        <v>5</v>
+      </c>
+      <c r="H12" s="66">
+        <v>4</v>
+      </c>
+      <c r="I12" s="67">
+        <f>RANK(H12,H$3:H$18)</f>
+        <v>7</v>
+      </c>
+      <c r="J12" s="64">
+        <v>1.98</v>
+      </c>
+      <c r="K12" s="65">
+        <f>RANK(J12,J$3:J27,1)</f>
+        <v>3</v>
+      </c>
+      <c r="L12" s="66">
+        <v>1.91</v>
+      </c>
+      <c r="M12" s="68">
+        <v>5.28</v>
+      </c>
+      <c r="N12" s="68">
+        <v>5.61</v>
+      </c>
+      <c r="O12" s="67">
+        <f>RANK(N12,N$3:N$18,1)</f>
+        <v>13</v>
+      </c>
+      <c r="P12" s="64">
+        <v>-0.64</v>
+      </c>
+      <c r="Q12" s="69">
+        <v>3.16</v>
+      </c>
+      <c r="R12" s="69">
+        <v>3.23</v>
+      </c>
+      <c r="S12" s="70">
+        <f>RANK(R12,R$3:R$18,1)</f>
+        <v>13</v>
+      </c>
+      <c r="T12" s="87">
+        <f>G12+I12+K12+O12+S12</f>
+        <v>41</v>
+      </c>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AB12" s="30"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="83">
+        <v>11</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="61">
+        <f>D13/60</f>
+        <v>44.733333333333334</v>
+      </c>
+      <c r="D13" s="62">
+        <v>2684</v>
+      </c>
+      <c r="E13" s="63">
+        <f>C13*Sheet1!$AD$3</f>
+        <v>0.49952222222222226</v>
+      </c>
+      <c r="F13" s="64">
+        <v>0.87</v>
+      </c>
+      <c r="G13" s="65">
+        <f>RANK(F13,F$3:F$18)</f>
+        <v>12</v>
+      </c>
+      <c r="H13" s="66">
+        <v>2.92</v>
+      </c>
+      <c r="I13" s="67">
+        <f>RANK(H13,H$3:H$18)</f>
+        <v>11</v>
+      </c>
+      <c r="J13" s="64">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="K13" s="65">
+        <f>RANK(J13,J$3:J28,1)</f>
+        <v>11</v>
+      </c>
+      <c r="L13" s="66">
+        <v>0.94</v>
+      </c>
+      <c r="M13" s="68">
+        <v>2.85</v>
+      </c>
+      <c r="N13" s="68">
+        <v>3</v>
+      </c>
+      <c r="O13" s="67">
+        <f>RANK(N13,N$3:N$18,1)</f>
+        <v>7</v>
+      </c>
+      <c r="P13" s="64">
+        <v>-0.26</v>
+      </c>
+      <c r="Q13" s="69">
+        <v>1.45</v>
+      </c>
+      <c r="R13" s="69">
+        <v>1.47</v>
+      </c>
+      <c r="S13" s="70">
+        <f>RANK(R13,R$3:R$18,1)</f>
+        <v>10</v>
+      </c>
+      <c r="T13" s="87">
+        <f>G13+I13+K13+O13+S13</f>
+        <v>51</v>
+      </c>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AB13" s="30"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="83">
+        <v>12</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="61">
+        <f>D14/60</f>
+        <v>45.666666666666664</v>
+      </c>
+      <c r="D14" s="71">
+        <v>2740</v>
+      </c>
+      <c r="E14" s="63">
+        <f>C14*Sheet1!$AD$3</f>
+        <v>0.50994444444444442</v>
+      </c>
+      <c r="F14" s="64">
+        <v>0.84</v>
+      </c>
+      <c r="G14" s="65">
+        <f>RANK(F14,F$3:F$18)</f>
+        <v>13</v>
+      </c>
+      <c r="H14" s="66">
+        <v>2.78</v>
+      </c>
+      <c r="I14" s="67">
+        <f>RANK(H14,H$3:H$18)</f>
+        <v>14</v>
+      </c>
+      <c r="J14" s="64">
+        <v>36.04</v>
+      </c>
+      <c r="K14" s="65">
+        <f>RANK(J14,J$3:J29,1)</f>
+        <v>13</v>
+      </c>
+      <c r="L14" s="66">
+        <v>0.84</v>
+      </c>
+      <c r="M14" s="68">
+        <v>2.76</v>
+      </c>
+      <c r="N14" s="68">
+        <v>2.88</v>
+      </c>
+      <c r="O14" s="67">
+        <f>RANK(N14,N$3:N$18,1)</f>
+        <v>5</v>
+      </c>
+      <c r="P14" s="64">
+        <v>-0.26</v>
+      </c>
+      <c r="Q14" s="69">
+        <v>1.34</v>
+      </c>
+      <c r="R14" s="69">
+        <v>1.37</v>
+      </c>
+      <c r="S14" s="70">
+        <f>RANK(R14,R$3:R$18,1)</f>
+        <v>7</v>
+      </c>
+      <c r="T14" s="87">
+        <f>G14+I14+K14+O14+S14</f>
+        <v>52</v>
+      </c>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AB14" s="30"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="83">
+        <v>13</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="61">
+        <f>D15/60</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="D15" s="62">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="63">
+        <f>C15*Sheet1!$AD$3</f>
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="F15" s="64">
+        <v>0.82</v>
+      </c>
+      <c r="G15" s="65">
+        <f>RANK(F15,F$3:F$18)</f>
+        <v>14</v>
+      </c>
+      <c r="H15" s="66">
+        <v>2.92</v>
+      </c>
+      <c r="I15" s="67">
+        <f>RANK(H15,H$3:H$18)</f>
+        <v>11</v>
+      </c>
+      <c r="J15" s="64">
+        <v>38.07</v>
+      </c>
+      <c r="K15" s="65">
+        <f>RANK(J15,J$3:J30,1)</f>
+        <v>14</v>
+      </c>
+      <c r="L15" s="66">
+        <v>0.71</v>
+      </c>
+      <c r="M15" s="68">
+        <v>2.76</v>
+      </c>
+      <c r="N15" s="68">
+        <v>2.85</v>
+      </c>
+      <c r="O15" s="67">
+        <f>RANK(N15,N$3:N$18,1)</f>
+        <v>4</v>
+      </c>
+      <c r="P15" s="64">
+        <v>-0.23</v>
+      </c>
+      <c r="Q15" s="69">
+        <v>1.58</v>
+      </c>
+      <c r="R15" s="69">
+        <v>1.6</v>
+      </c>
+      <c r="S15" s="70">
+        <f>RANK(R15,R$3:R$18,1)</f>
+        <v>11</v>
+      </c>
+      <c r="T15" s="87">
+        <f>G15+I15+K15+O15+S15</f>
+        <v>54</v>
+      </c>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AB15" s="30"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="83">
+        <v>14</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="61">
+        <f>D16/60</f>
+        <v>45.43333333333333</v>
+      </c>
+      <c r="D16" s="62">
+        <v>2726</v>
+      </c>
+      <c r="E16" s="63">
+        <f>C16*Sheet1!$AD$3</f>
+        <v>0.50733888888888889</v>
+      </c>
+      <c r="F16" s="64">
+        <v>0.77</v>
+      </c>
+      <c r="G16" s="65">
+        <f>RANK(F16,F$3:F$18)</f>
+        <v>15</v>
+      </c>
+      <c r="H16" s="66">
+        <v>2.85</v>
+      </c>
+      <c r="I16" s="67">
+        <f>RANK(H16,H$3:H$18)</f>
+        <v>13</v>
+      </c>
+      <c r="J16" s="64">
+        <v>51.21</v>
+      </c>
+      <c r="K16" s="65">
+        <f>RANK(J16,J$3:J31,1)</f>
+        <v>15</v>
+      </c>
+      <c r="L16" s="66">
+        <v>0.98</v>
+      </c>
+      <c r="M16" s="68">
+        <v>2.82</v>
+      </c>
+      <c r="N16" s="68">
+        <v>2.99</v>
+      </c>
+      <c r="O16" s="67">
+        <f>RANK(N16,N$3:N$18,1)</f>
+        <v>6</v>
+      </c>
+      <c r="P16" s="64">
+        <v>-0.24</v>
+      </c>
+      <c r="Q16" s="69">
+        <v>1.44</v>
+      </c>
+      <c r="R16" s="69">
+        <v>1.46</v>
+      </c>
+      <c r="S16" s="70">
+        <f>RANK(R16,R$3:R$18,1)</f>
+        <v>9</v>
+      </c>
+      <c r="T16" s="87">
+        <f>G16+I16+K16+O16+S16</f>
+        <v>58</v>
+      </c>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AB16" s="30"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="83">
+        <v>15</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="61">
+        <f>D17/60</f>
+        <v>43.366666666666667</v>
+      </c>
+      <c r="D17" s="62">
+        <v>2602</v>
+      </c>
+      <c r="E17" s="63">
+        <f>C17*Sheet1!$AD$3</f>
+        <v>0.48426111111111114</v>
+      </c>
+      <c r="F17" s="64">
+        <v>0.93</v>
+      </c>
+      <c r="G17" s="65">
+        <f>RANK(F17,F$3:F$18)</f>
+        <v>8</v>
+      </c>
+      <c r="H17" s="66">
+        <v>2.65</v>
+      </c>
+      <c r="I17" s="67">
+        <f>RANK(H17,H$3:H$18)</f>
+        <v>15</v>
+      </c>
+      <c r="J17" s="64">
+        <v>2.39</v>
+      </c>
+      <c r="K17" s="65">
+        <f>RANK(J17,J$3:J32,1)</f>
+        <v>4</v>
+      </c>
+      <c r="L17" s="66">
+        <v>1.93</v>
+      </c>
+      <c r="M17" s="68">
+        <v>5.29</v>
+      </c>
+      <c r="N17" s="68">
+        <v>5.63</v>
+      </c>
+      <c r="O17" s="67">
+        <f>RANK(N17,N$3:N$18,1)</f>
+        <v>16</v>
+      </c>
+      <c r="P17" s="64">
+        <v>-0.67</v>
+      </c>
+      <c r="Q17" s="69">
+        <v>3.18</v>
+      </c>
+      <c r="R17" s="69">
+        <v>3.25</v>
+      </c>
+      <c r="S17" s="70">
+        <f>RANK(R17,R$3:R$18,1)</f>
+        <v>16</v>
+      </c>
+      <c r="T17" s="87">
+        <f>G17+I17+K17+O17+S17</f>
+        <v>59</v>
+      </c>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AB17" s="30"/>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="84">
+        <v>16</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="73">
+        <f>D18/60</f>
+        <v>45.31666666666667</v>
+      </c>
+      <c r="D18" s="74">
+        <v>2719</v>
+      </c>
+      <c r="E18" s="75">
+        <f>C18*Sheet1!$AD$3</f>
+        <v>0.50603611111111113</v>
+      </c>
+      <c r="F18" s="76">
+        <v>0.77</v>
+      </c>
+      <c r="G18" s="77">
+        <f>RANK(F18,F$3:F$18)</f>
+        <v>15</v>
+      </c>
+      <c r="H18" s="78">
+        <v>2.56</v>
+      </c>
+      <c r="I18" s="79">
+        <f>RANK(H18,H$3:H$18)</f>
+        <v>16</v>
+      </c>
+      <c r="J18" s="76">
+        <v>54.25</v>
+      </c>
+      <c r="K18" s="77">
+        <f>RANK(J18,J$3:J33,1)</f>
+        <v>16</v>
+      </c>
+      <c r="L18" s="78">
+        <v>1.06</v>
+      </c>
+      <c r="M18" s="80">
+        <v>3.17</v>
+      </c>
+      <c r="N18" s="80">
+        <v>3.35</v>
+      </c>
+      <c r="O18" s="79">
+        <f>RANK(N18,N$3:N$18,1)</f>
+        <v>10</v>
+      </c>
+      <c r="P18" s="76">
+        <v>-0.33</v>
+      </c>
+      <c r="Q18" s="81">
+        <v>1.71</v>
+      </c>
+      <c r="R18" s="81">
+        <v>1.74</v>
+      </c>
+      <c r="S18" s="82">
+        <f>RANK(R18,R$3:R$18,1)</f>
+        <v>12</v>
+      </c>
+      <c r="T18" s="88">
+        <f>G18+I18+K18+O18+S18</f>
+        <v>69</v>
+      </c>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AB18" s="30"/>
+    </row>
+  </sheetData>
+  <sortState ref="B3:T18">
+    <sortCondition ref="T3"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documentation/writeUp/evaluationJobs.xlsx
+++ b/documentation/writeUp/evaluationJobs.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\projects\clusterColombia\climacolombia\documentation\writeUp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{254F9303-679F-4E1B-A3C3-21F2D4D1BD1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{46DC940D-499B-4252-9659-A0F924CA6847}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="2" xr2:uid="{DC76DEBC-A1F9-45F2-A205-10806F0ABE5F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="3" xr2:uid="{DC76DEBC-A1F9-45F2-A205-10806F0ABE5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="81">
   <si>
     <t>KM</t>
   </si>
@@ -243,6 +244,59 @@
   </si>
   <si>
     <t>overall rank</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>K clusters</t>
+  </si>
+  <si>
+    <r>
+      <t>Features (normalised with MLlib L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Short name + results link</t>
+  </si>
+  <si>
+    <t>K-means</t>
+  </si>
+  <si>
+    <t>Temperature, relative humdity</t>
+  </si>
+  <si>
+    <t>Temperature range, relative humdity</t>
+  </si>
+  <si>
+    <t>Temperature, relative humdity,wind speed</t>
+  </si>
+  <si>
+    <t>Temperature, temperature range, relative humdity, wind speed</t>
+  </si>
+  <si>
+    <t>Bisecting K-means</t>
   </si>
 </sst>
 </file>
@@ -252,7 +306,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,8 +379,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,8 +414,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -812,12 +899,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -850,18 +952,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -887,24 +977,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
@@ -959,6 +1031,48 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2117,7 +2231,7 @@
   <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+      <selection activeCell="AB18" sqref="AB3:AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,19 +2253,19 @@
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25" t="s">
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
       <c r="AB1" t="s">
         <v>23</v>
       </c>
@@ -2208,9 +2322,9 @@
       <c r="Q2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
       <c r="AC2" t="s">
         <v>19</v>
       </c>
@@ -2238,14 +2352,14 @@
         <v>45</v>
       </c>
       <c r="F3" s="12">
-        <f>G3/60</f>
+        <f t="shared" ref="F3:F18" si="0">G3/60</f>
         <v>28.6</v>
       </c>
       <c r="G3" s="20">
         <v>1716</v>
       </c>
       <c r="H3" s="15">
-        <f>F3*$AD$3</f>
+        <f t="shared" ref="H3:H18" si="1">F3*$AD$3</f>
         <v>0.31936666666666669</v>
       </c>
       <c r="I3" s="11">
@@ -2275,27 +2389,27 @@
       <c r="Q3" s="11">
         <v>1.36</v>
       </c>
-      <c r="R3" s="30">
-        <f>RANK(I3,I$3:I$18)</f>
+      <c r="R3" s="26">
+        <f t="shared" ref="R3:R18" si="2">RANK(I3,I$3:I$18)</f>
         <v>5</v>
       </c>
-      <c r="S3" s="30">
-        <f>RANK(J3,J$3:J$18)</f>
+      <c r="S3" s="26">
+        <f t="shared" ref="S3:S18" si="3">RANK(J3,J$3:J$18)</f>
         <v>9</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="W3" s="30">
-        <f>RANK(N3,N$3:N$18)</f>
+      <c r="T3" s="26"/>
+      <c r="W3" s="26">
+        <f t="shared" ref="W3:W18" si="4">RANK(N3,N$3:N$18)</f>
         <v>5</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30">
-        <f>RANK(Q3,Q$3:Q$18)</f>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26">
+        <f t="shared" ref="Z3:Z18" si="5">RANK(Q3,Q$3:Q$18)</f>
         <v>11</v>
       </c>
-      <c r="AA3" s="30">
-        <f>SUM(R3:Z3)</f>
+      <c r="AA3" s="26">
+        <f t="shared" ref="AA3:AA18" si="6">SUM(R3:Z3)</f>
         <v>30</v>
       </c>
       <c r="AB3" s="7" t="s">
@@ -2323,14 +2437,14 @@
         <v>48</v>
       </c>
       <c r="F4" s="12">
-        <f>G4/60</f>
+        <f t="shared" si="0"/>
         <v>33.18333333333333</v>
       </c>
       <c r="G4" s="20">
         <v>1991</v>
       </c>
       <c r="H4" s="15">
-        <f>F4*$AD$3</f>
+        <f t="shared" si="1"/>
         <v>0.37054722222222219</v>
       </c>
       <c r="I4" s="11">
@@ -2360,27 +2474,27 @@
       <c r="Q4" s="11">
         <v>3.23</v>
       </c>
-      <c r="R4" s="30">
-        <f>RANK(I4,I$3:I$18)</f>
+      <c r="R4" s="26">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="S4" s="30">
-        <f>RANK(J4,J$3:J$18)</f>
+      <c r="S4" s="26">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="T4" s="30"/>
-      <c r="W4" s="30">
-        <f>RANK(N4,N$3:N$18)</f>
+      <c r="T4" s="26"/>
+      <c r="W4" s="26">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30">
-        <f>RANK(Q4,Q$3:Q$18)</f>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AA4" s="30">
-        <f>SUM(R4:Z4)</f>
+      <c r="AA4" s="26">
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="AB4" s="7" t="s">
@@ -2408,14 +2522,14 @@
         <v>52</v>
       </c>
       <c r="F5" s="12">
-        <f>G5/60</f>
+        <f t="shared" si="0"/>
         <v>44.733333333333334</v>
       </c>
       <c r="G5" s="20">
         <v>2684</v>
       </c>
       <c r="H5" s="15">
-        <f>F5*$AD$3</f>
+        <f t="shared" si="1"/>
         <v>0.49952222222222226</v>
       </c>
       <c r="I5" s="11">
@@ -2445,27 +2559,27 @@
       <c r="Q5" s="11">
         <v>1.47</v>
       </c>
-      <c r="R5" s="30">
-        <f>RANK(I5,I$3:I$18)</f>
+      <c r="R5" s="26">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="S5" s="30">
-        <f>RANK(J5,J$3:J$18)</f>
+      <c r="S5" s="26">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="W5" s="30">
-        <f>RANK(N5,N$3:N$18)</f>
+      <c r="T5" s="26"/>
+      <c r="W5" s="26">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30">
-        <f>RANK(Q5,Q$3:Q$18)</f>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="AA5" s="30">
-        <f>SUM(R5:Z5)</f>
+      <c r="AA5" s="26">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="AB5" s="7" t="s">
@@ -2489,14 +2603,14 @@
         <v>53</v>
       </c>
       <c r="F6" s="12">
-        <f>G6/60</f>
+        <f t="shared" si="0"/>
         <v>45.43333333333333</v>
       </c>
       <c r="G6" s="20">
         <v>2726</v>
       </c>
       <c r="H6" s="15">
-        <f>F6*$AD$3</f>
+        <f t="shared" si="1"/>
         <v>0.50733888888888889</v>
       </c>
       <c r="I6" s="11">
@@ -2526,27 +2640,27 @@
       <c r="Q6" s="11">
         <v>1.46</v>
       </c>
-      <c r="R6" s="30">
-        <f>RANK(I6,I$3:I$18)</f>
+      <c r="R6" s="26">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="S6" s="30">
-        <f>RANK(J6,J$3:J$18)</f>
+      <c r="S6" s="26">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="T6" s="30"/>
-      <c r="W6" s="30">
-        <f>RANK(N6,N$3:N$18)</f>
+      <c r="T6" s="26"/>
+      <c r="W6" s="26">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30">
-        <f>RANK(Q6,Q$3:Q$18)</f>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="AA6" s="30">
-        <f>SUM(R6:Z6)</f>
+      <c r="AA6" s="26">
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="AB6" s="7" t="s">
@@ -2573,14 +2687,14 @@
         <v>54</v>
       </c>
       <c r="F7" s="12">
-        <f>G7/60</f>
+        <f t="shared" si="0"/>
         <v>27.466666666666665</v>
       </c>
       <c r="G7" s="20">
         <v>1648</v>
       </c>
       <c r="H7" s="15">
-        <f>F7*$AD$3</f>
+        <f t="shared" si="1"/>
         <v>0.3067111111111111</v>
       </c>
       <c r="I7" s="11">
@@ -2610,27 +2724,27 @@
       <c r="Q7" s="11">
         <v>1.36</v>
       </c>
-      <c r="R7" s="30">
-        <f>RANK(I7,I$3:I$18)</f>
+      <c r="R7" s="26">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="S7" s="30">
-        <f>RANK(J7,J$3:J$18)</f>
+      <c r="S7" s="26">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="W7" s="30">
-        <f>RANK(N7,N$3:N$18)</f>
+      <c r="T7" s="26"/>
+      <c r="W7" s="26">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30">
-        <f>RANK(Q7,Q$3:Q$18)</f>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="AA7" s="30">
-        <f>SUM(R7:Z7)</f>
+      <c r="AA7" s="26">
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="AB7" s="7" t="s">
@@ -2651,14 +2765,14 @@
         <v>55</v>
       </c>
       <c r="F8" s="12">
-        <f>G8/60</f>
+        <f t="shared" si="0"/>
         <v>43.366666666666667</v>
       </c>
       <c r="G8" s="20">
         <v>2602</v>
       </c>
       <c r="H8" s="15">
-        <f>F8*$AD$3</f>
+        <f t="shared" si="1"/>
         <v>0.48426111111111114</v>
       </c>
       <c r="I8" s="11">
@@ -2688,27 +2802,27 @@
       <c r="Q8" s="11">
         <v>3.25</v>
       </c>
-      <c r="R8" s="30">
-        <f>RANK(I8,I$3:I$18)</f>
+      <c r="R8" s="26">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="S8" s="30">
-        <f>RANK(J8,J$3:J$18)</f>
+      <c r="S8" s="26">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="T8" s="30"/>
-      <c r="W8" s="30">
-        <f>RANK(N8,N$3:N$18)</f>
+      <c r="T8" s="26"/>
+      <c r="W8" s="26">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30">
-        <f>RANK(Q8,Q$3:Q$18)</f>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AA8" s="30">
-        <f>SUM(R8:Z8)</f>
+      <c r="AA8" s="26">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AB8" s="7" t="s">
@@ -2729,14 +2843,14 @@
         <v>59</v>
       </c>
       <c r="F9" s="12">
-        <f>G9/60</f>
+        <f t="shared" si="0"/>
         <v>45.666666666666664</v>
       </c>
       <c r="G9" s="21">
         <v>2740</v>
       </c>
       <c r="H9" s="15">
-        <f>F9*$AD$3</f>
+        <f t="shared" si="1"/>
         <v>0.50994444444444442</v>
       </c>
       <c r="I9" s="11">
@@ -2766,27 +2880,27 @@
       <c r="Q9" s="11">
         <v>1.37</v>
       </c>
-      <c r="R9" s="30">
-        <f>RANK(I9,I$3:I$18)</f>
+      <c r="R9" s="26">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="S9" s="30">
-        <f>RANK(J9,J$3:J$18)</f>
+      <c r="S9" s="26">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="W9" s="30">
-        <f>RANK(N9,N$3:N$18)</f>
+      <c r="T9" s="26"/>
+      <c r="W9" s="26">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30">
-        <f>RANK(Q9,Q$3:Q$18)</f>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="AA9" s="30">
-        <f>SUM(R9:Z9)</f>
+      <c r="AA9" s="26">
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="AB9" s="7" t="s">
@@ -2807,14 +2921,14 @@
         <v>60</v>
       </c>
       <c r="F10" s="12">
-        <f>G10/60</f>
+        <f t="shared" si="0"/>
         <v>45.31666666666667</v>
       </c>
       <c r="G10" s="20">
         <v>2719</v>
       </c>
       <c r="H10" s="15">
-        <f>F10*$AD$3</f>
+        <f t="shared" si="1"/>
         <v>0.50603611111111113</v>
       </c>
       <c r="I10" s="11">
@@ -2844,27 +2958,27 @@
       <c r="Q10" s="11">
         <v>1.74</v>
       </c>
-      <c r="R10" s="30">
-        <f>RANK(I10,I$3:I$18)</f>
+      <c r="R10" s="26">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="S10" s="30">
-        <f>RANK(J10,J$3:J$18)</f>
+      <c r="S10" s="26">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="T10" s="30"/>
-      <c r="W10" s="30">
-        <f>RANK(N10,N$3:N$18)</f>
+      <c r="T10" s="26"/>
+      <c r="W10" s="26">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30">
-        <f>RANK(Q10,Q$3:Q$18)</f>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AA10" s="30">
-        <f>SUM(R10:Z10)</f>
+      <c r="AA10" s="26">
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="AB10" s="7" t="s">
@@ -2888,14 +3002,14 @@
         <v>46</v>
       </c>
       <c r="F11" s="12">
-        <f>G11/60</f>
+        <f t="shared" si="0"/>
         <v>43.716666666666669</v>
       </c>
       <c r="G11" s="20">
         <v>2623</v>
       </c>
       <c r="H11" s="15">
-        <f>F11*$AD$3</f>
+        <f t="shared" si="1"/>
         <v>0.48816944444444449</v>
       </c>
       <c r="I11" s="11">
@@ -2925,27 +3039,27 @@
       <c r="Q11" s="11">
         <v>1.27</v>
       </c>
-      <c r="R11" s="30">
-        <f>RANK(I11,I$3:I$18)</f>
+      <c r="R11" s="26">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S11" s="30">
-        <f>RANK(J11,J$3:J$18)</f>
+      <c r="S11" s="26">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="W11" s="30">
-        <f>RANK(N11,N$3:N$18)</f>
+      <c r="T11" s="26"/>
+      <c r="W11" s="26">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30">
-        <f>RANK(Q11,Q$3:Q$18)</f>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="AA11" s="30">
-        <f>SUM(R11:Z11)</f>
+      <c r="AA11" s="26">
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AB11" s="7" t="s">
@@ -2966,14 +3080,14 @@
         <v>49</v>
       </c>
       <c r="F12" s="12">
-        <f>G12/60</f>
+        <f t="shared" si="0"/>
         <v>44.333333333333336</v>
       </c>
       <c r="G12" s="20">
         <v>2660</v>
       </c>
       <c r="H12" s="15">
-        <f>F12*$AD$3</f>
+        <f t="shared" si="1"/>
         <v>0.49505555555555558</v>
       </c>
       <c r="I12" s="11">
@@ -3003,27 +3117,27 @@
       <c r="Q12" s="11">
         <v>3.23</v>
       </c>
-      <c r="R12" s="30">
-        <f>RANK(I12,I$3:I$18)</f>
+      <c r="R12" s="26">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S12" s="30">
-        <f>RANK(J12,J$3:J$18)</f>
+      <c r="S12" s="26">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T12" s="30"/>
-      <c r="W12" s="30">
-        <f>RANK(N12,N$3:N$18)</f>
+      <c r="T12" s="26"/>
+      <c r="W12" s="26">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30">
-        <f>RANK(Q12,Q$3:Q$18)</f>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AA12" s="30">
-        <f>SUM(R12:Z12)</f>
+      <c r="AA12" s="26">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AB12" s="7" t="s">
@@ -3044,14 +3158,14 @@
         <v>50</v>
       </c>
       <c r="F13" s="12">
-        <f>G13/60</f>
+        <f t="shared" si="0"/>
         <v>70.7</v>
       </c>
       <c r="G13" s="20">
         <v>4242</v>
       </c>
       <c r="H13" s="15">
-        <f>F13*$AD$3</f>
+        <f t="shared" si="1"/>
         <v>0.78948333333333343</v>
       </c>
       <c r="I13" s="11">
@@ -3081,27 +3195,27 @@
       <c r="Q13" s="11">
         <v>1.29</v>
       </c>
-      <c r="R13" s="30">
-        <f>RANK(I13,I$3:I$18)</f>
+      <c r="R13" s="26">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="S13" s="30">
-        <f>RANK(J13,J$3:J$18)</f>
+      <c r="S13" s="26">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="T13" s="30"/>
-      <c r="W13" s="30">
-        <f>RANK(N13,N$3:N$18)</f>
+      <c r="T13" s="26"/>
+      <c r="W13" s="26">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30">
-        <f>RANK(Q13,Q$3:Q$18)</f>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="AA13" s="30">
-        <f>SUM(R13:Z13)</f>
+      <c r="AA13" s="26">
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="AB13" s="7" t="s">
@@ -3122,14 +3236,14 @@
         <v>51</v>
       </c>
       <c r="F14" s="12">
-        <f>G14/60</f>
+        <f t="shared" si="0"/>
         <v>67.683333333333337</v>
       </c>
       <c r="G14" s="20">
         <v>4061</v>
       </c>
       <c r="H14" s="15">
-        <f>F14*$AD$3</f>
+        <f t="shared" si="1"/>
         <v>0.75579722222222223</v>
       </c>
       <c r="I14" s="11">
@@ -3159,27 +3273,27 @@
       <c r="Q14" s="11">
         <v>1.39</v>
       </c>
-      <c r="R14" s="30">
-        <f>RANK(I14,I$3:I$18)</f>
+      <c r="R14" s="26">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="S14" s="30">
-        <f>RANK(J14,J$3:J$18)</f>
+      <c r="S14" s="26">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="T14" s="30"/>
-      <c r="W14" s="30">
-        <f>RANK(N14,N$3:N$18)</f>
+      <c r="T14" s="26"/>
+      <c r="W14" s="26">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30">
-        <f>RANK(Q14,Q$3:Q$18)</f>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="AA14" s="30">
-        <f>SUM(R14:Z14)</f>
+      <c r="AA14" s="26">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="AB14" s="7" t="s">
@@ -3203,14 +3317,14 @@
         <v>47</v>
       </c>
       <c r="F15" s="12">
-        <f>G15/60</f>
+        <f t="shared" si="0"/>
         <v>43.733333333333334</v>
       </c>
       <c r="G15" s="20">
         <v>2624</v>
       </c>
       <c r="H15" s="15">
-        <f>F15*$AD$3</f>
+        <f t="shared" si="1"/>
         <v>0.48835555555555554</v>
       </c>
       <c r="I15" s="11">
@@ -3240,27 +3354,27 @@
       <c r="Q15" s="11">
         <v>1.3</v>
       </c>
-      <c r="R15" s="30">
-        <f>RANK(I15,I$3:I$18)</f>
+      <c r="R15" s="26">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S15" s="30">
-        <f>RANK(J15,J$3:J$18)</f>
+      <c r="S15" s="26">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="W15" s="30">
-        <f>RANK(N15,N$3:N$18)</f>
+      <c r="T15" s="26"/>
+      <c r="W15" s="26">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30">
-        <f>RANK(Q15,Q$3:Q$18)</f>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="AA15" s="30">
-        <f>SUM(R15:Z15)</f>
+      <c r="AA15" s="26">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="AB15" s="7" t="s">
@@ -3281,14 +3395,14 @@
         <v>56</v>
       </c>
       <c r="F16" s="12">
-        <f>G16/60</f>
+        <f t="shared" si="0"/>
         <v>65.3</v>
       </c>
       <c r="G16" s="20">
         <v>3918</v>
       </c>
       <c r="H16" s="15">
-        <f>F16*$AD$3</f>
+        <f t="shared" si="1"/>
         <v>0.72918333333333329</v>
       </c>
       <c r="I16" s="11">
@@ -3318,27 +3432,27 @@
       <c r="Q16" s="11">
         <v>3.24</v>
       </c>
-      <c r="R16" s="30">
-        <f>RANK(I16,I$3:I$18)</f>
+      <c r="R16" s="26">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="S16" s="30">
-        <f>RANK(J16,J$3:J$18)</f>
+      <c r="S16" s="26">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="T16" s="30"/>
-      <c r="W16" s="30">
-        <f>RANK(N16,N$3:N$18)</f>
+      <c r="T16" s="26"/>
+      <c r="W16" s="26">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30">
-        <f>RANK(Q16,Q$3:Q$18)</f>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AA16" s="30">
-        <f>SUM(R16:Z16)</f>
+      <c r="AA16" s="26">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="AB16" s="7" t="s">
@@ -3359,14 +3473,14 @@
         <v>57</v>
       </c>
       <c r="F17" s="12">
-        <f>G17/60</f>
+        <f t="shared" si="0"/>
         <v>68.8</v>
       </c>
       <c r="G17" s="20">
         <v>4128</v>
       </c>
       <c r="H17" s="15">
-        <f>F17*$AD$3</f>
+        <f t="shared" si="1"/>
         <v>0.76826666666666665</v>
       </c>
       <c r="I17" s="11">
@@ -3396,27 +3510,27 @@
       <c r="Q17" s="11">
         <v>1.27</v>
       </c>
-      <c r="R17" s="30">
-        <f>RANK(I17,I$3:I$18)</f>
+      <c r="R17" s="26">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="S17" s="30">
-        <f>RANK(J17,J$3:J$18)</f>
+      <c r="S17" s="26">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="T17" s="30"/>
-      <c r="W17" s="30">
-        <f>RANK(N17,N$3:N$18)</f>
+      <c r="T17" s="26"/>
+      <c r="W17" s="26">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30">
-        <f>RANK(Q17,Q$3:Q$18)</f>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="AA17" s="30">
-        <f>SUM(R17:Z17)</f>
+      <c r="AA17" s="26">
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="AB17" s="7" t="s">
@@ -3437,14 +3551,14 @@
         <v>58</v>
       </c>
       <c r="F18" s="12">
-        <f>G18/60</f>
+        <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
       <c r="G18" s="20">
         <v>2500</v>
       </c>
       <c r="H18" s="15">
-        <f>F18*$AD$3</f>
+        <f t="shared" si="1"/>
         <v>0.46527777777777773</v>
       </c>
       <c r="I18" s="11">
@@ -3474,27 +3588,27 @@
       <c r="Q18" s="11">
         <v>1.6</v>
       </c>
-      <c r="R18" s="30">
-        <f>RANK(I18,I$3:I$18)</f>
+      <c r="R18" s="26">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S18" s="30">
-        <f>RANK(J18,J$3:J$18)</f>
+      <c r="S18" s="26">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="T18" s="30"/>
-      <c r="W18" s="30">
-        <f>RANK(N18,N$3:N$18)</f>
+      <c r="T18" s="26"/>
+      <c r="W18" s="26">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30">
-        <f>RANK(Q18,Q$3:Q$18)</f>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AA18" s="30">
-        <f>SUM(R18:Z18)</f>
+      <c r="AA18" s="26">
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="AB18" s="7" t="s">
@@ -3793,7 +3907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CFE6D5-4755-44B2-BCD8-E835F887EBB8}">
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:T18"/>
     </sheetView>
   </sheetViews>
@@ -3832,1250 +3946,1250 @@
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="41" t="s">
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
     </row>
     <row r="2" spans="1:28" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="R2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="85" t="s">
+      <c r="T2" s="75" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="83">
+      <c r="A3" s="73">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="49">
-        <f>D3/60</f>
+      <c r="C3" s="39">
+        <f t="shared" ref="C3:C18" si="0">D3/60</f>
         <v>43.716666666666669</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="40">
         <v>2623</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="41">
         <f>C3*Sheet1!$AD$3</f>
         <v>0.48816944444444449</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="42">
         <v>0.99</v>
       </c>
-      <c r="G3" s="53">
-        <f>RANK(F3,F$3:F$18)</f>
+      <c r="G3" s="43">
+        <f t="shared" ref="G3:G18" si="1">RANK(F3,F$3:F$18)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="44">
         <v>5.84</v>
       </c>
-      <c r="I3" s="55">
-        <f>RANK(H3,H$3:H$18)</f>
+      <c r="I3" s="45">
+        <f t="shared" ref="I3:I18" si="2">RANK(H3,H$3:H$18)</f>
         <v>2</v>
       </c>
-      <c r="J3" s="52">
+      <c r="J3" s="42">
         <v>2.5099999999999998</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="43">
         <f>RANK(J3,J$3:J18,1)</f>
         <v>5</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="44">
         <v>1.28</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="46">
         <v>2.92</v>
       </c>
-      <c r="N3" s="56">
+      <c r="N3" s="46">
         <v>3.18</v>
       </c>
-      <c r="O3" s="55">
-        <f>RANK(N3,N$3:N$18,1)</f>
+      <c r="O3" s="45">
+        <f t="shared" ref="O3:O18" si="3">RANK(N3,N$3:N$18,1)</f>
         <v>9</v>
       </c>
-      <c r="P3" s="57">
+      <c r="P3" s="47">
         <v>-0.16</v>
       </c>
-      <c r="Q3" s="58">
+      <c r="Q3" s="48">
         <v>1.26</v>
       </c>
-      <c r="R3" s="58">
+      <c r="R3" s="48">
         <v>1.27</v>
       </c>
-      <c r="S3" s="59">
-        <f>RANK(R3,R$3:R$18,1)</f>
+      <c r="S3" s="49">
+        <f t="shared" ref="S3:S18" si="4">RANK(R3,R$3:R$18,1)</f>
         <v>1</v>
       </c>
-      <c r="T3" s="86">
-        <f>G3+I3+K3+O3+S3</f>
+      <c r="T3" s="76">
+        <f t="shared" ref="T3:T18" si="5">G3+I3+K3+O3+S3</f>
         <v>18</v>
       </c>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AB3" s="30"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AB3" s="26"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="83">
+      <c r="A4" s="73">
         <v>2</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="61">
-        <f>D4/60</f>
+      <c r="C4" s="51">
+        <f t="shared" si="0"/>
         <v>43.733333333333334</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="52">
         <v>2624</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="53">
         <f>C4*Sheet1!$AD$3</f>
         <v>0.48835555555555554</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="54">
         <v>0.99</v>
       </c>
-      <c r="G4" s="65">
-        <f>RANK(F4,F$3:F$18)</f>
+      <c r="G4" s="55">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="56">
         <v>4.1399999999999997</v>
       </c>
-      <c r="I4" s="67">
-        <f>RANK(H4,H$3:H$18)</f>
+      <c r="I4" s="57">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="54">
         <v>2.8</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="55">
         <f>RANK(J4,J$3:J19,1)</f>
         <v>6</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="56">
         <v>1.33</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="58">
         <v>2.88</v>
       </c>
-      <c r="N4" s="68">
+      <c r="N4" s="58">
         <v>3.17</v>
       </c>
-      <c r="O4" s="67">
-        <f>RANK(N4,N$3:N$18,1)</f>
+      <c r="O4" s="57">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="P4" s="64">
+      <c r="P4" s="54">
         <v>-0.2</v>
       </c>
-      <c r="Q4" s="69">
+      <c r="Q4" s="59">
         <v>1.29</v>
       </c>
-      <c r="R4" s="69">
+      <c r="R4" s="59">
         <v>1.3</v>
       </c>
-      <c r="S4" s="70">
-        <f>RANK(R4,R$3:R$18,1)</f>
+      <c r="S4" s="60">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="T4" s="87">
-        <f>G4+I4+K4+O4+S4</f>
+      <c r="T4" s="77">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AB4" s="30"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AB4" s="26"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="83">
+      <c r="A5" s="73">
         <v>3</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="61">
-        <f>D5/60</f>
+      <c r="C5" s="51">
+        <f t="shared" si="0"/>
         <v>70.7</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="52">
         <v>4242</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="53">
         <f>C5*Sheet1!$AD$3</f>
         <v>0.78948333333333343</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="54">
         <v>0.93</v>
       </c>
-      <c r="G5" s="65">
-        <f>RANK(F5,F$3:F$18)</f>
+      <c r="G5" s="55">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="56">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I5" s="67">
-        <f>RANK(H5,H$3:H$18)</f>
+      <c r="I5" s="57">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="54">
         <v>19.010000000000002</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="55">
         <f>RANK(J5,J$3:J20,1)</f>
         <v>9</v>
       </c>
-      <c r="L5" s="66">
+      <c r="L5" s="56">
         <v>0.49</v>
       </c>
-      <c r="M5" s="68">
+      <c r="M5" s="58">
         <v>2.35</v>
       </c>
-      <c r="N5" s="68">
+      <c r="N5" s="58">
         <v>2.4</v>
       </c>
-      <c r="O5" s="67">
-        <f>RANK(N5,N$3:N$18,1)</f>
+      <c r="O5" s="57">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="P5" s="64">
+      <c r="P5" s="54">
         <v>-0.09</v>
       </c>
-      <c r="Q5" s="69">
+      <c r="Q5" s="59">
         <v>1.29</v>
       </c>
-      <c r="R5" s="69">
+      <c r="R5" s="59">
         <v>1.29</v>
       </c>
-      <c r="S5" s="70">
-        <f>RANK(R5,R$3:R$18,1)</f>
+      <c r="S5" s="60">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="T5" s="87">
-        <f>G5+I5+K5+O5+S5</f>
+      <c r="T5" s="77">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AB5" s="30"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AB5" s="26"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="83">
+      <c r="A6" s="73">
         <v>4</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="61">
-        <f>D6/60</f>
+      <c r="C6" s="51">
+        <f t="shared" si="0"/>
         <v>44.333333333333336</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="52">
         <v>2660</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="53">
         <f>C6*Sheet1!$AD$3</f>
         <v>0.49505555555555558</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="54">
         <v>0.99</v>
       </c>
-      <c r="G6" s="65">
-        <f>RANK(F6,F$3:F$18)</f>
+      <c r="G6" s="55">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="56">
         <v>8.4600000000000009</v>
       </c>
-      <c r="I6" s="67">
-        <f>RANK(H6,H$3:H$18)</f>
+      <c r="I6" s="57">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="54">
         <v>0.68</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="55">
         <f>RANK(J6,J$3:J21,1)</f>
         <v>1</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="56">
         <v>1.93</v>
       </c>
-      <c r="M6" s="68">
+      <c r="M6" s="58">
         <v>5.28</v>
       </c>
-      <c r="N6" s="68">
+      <c r="N6" s="58">
         <v>5.62</v>
       </c>
-      <c r="O6" s="67">
-        <f>RANK(N6,N$3:N$18,1)</f>
+      <c r="O6" s="57">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="P6" s="64">
+      <c r="P6" s="54">
         <v>-0.65</v>
       </c>
-      <c r="Q6" s="69">
+      <c r="Q6" s="59">
         <v>3.17</v>
       </c>
-      <c r="R6" s="69">
+      <c r="R6" s="59">
         <v>3.23</v>
       </c>
-      <c r="S6" s="70">
-        <f>RANK(R6,R$3:R$18,1)</f>
+      <c r="S6" s="60">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="T6" s="87">
-        <f>G6+I6+K6+O6+S6</f>
+      <c r="T6" s="77">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AB6" s="30"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AB6" s="26"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="83">
+      <c r="A7" s="73">
         <v>5</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="61">
-        <f>D7/60</f>
+      <c r="C7" s="51">
+        <f t="shared" si="0"/>
         <v>68.8</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="52">
         <v>4128</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="53">
         <f>C7*Sheet1!$AD$3</f>
         <v>0.76826666666666665</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="54">
         <v>0.9</v>
       </c>
-      <c r="G7" s="65">
-        <f>RANK(F7,F$3:F$18)</f>
+      <c r="G7" s="55">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="56">
         <v>2.93</v>
       </c>
-      <c r="I7" s="67">
-        <f>RANK(H7,H$3:H$18)</f>
+      <c r="I7" s="57">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J7" s="64">
+      <c r="J7" s="54">
         <v>21.43</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="55">
         <f>RANK(J7,J$3:J22,1)</f>
         <v>10</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="56">
         <v>0.65</v>
       </c>
-      <c r="M7" s="68">
+      <c r="M7" s="58">
         <v>2.0699999999999998</v>
       </c>
-      <c r="N7" s="68">
+      <c r="N7" s="58">
         <v>2.17</v>
       </c>
-      <c r="O7" s="67">
-        <f>RANK(N7,N$3:N$18,1)</f>
+      <c r="O7" s="57">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P7" s="64">
+      <c r="P7" s="54">
         <v>-0.18</v>
       </c>
-      <c r="Q7" s="69">
+      <c r="Q7" s="59">
         <v>1.25</v>
       </c>
-      <c r="R7" s="69">
+      <c r="R7" s="59">
         <v>1.27</v>
       </c>
-      <c r="S7" s="70">
-        <f>RANK(R7,R$3:R$18,1)</f>
+      <c r="S7" s="60">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T7" s="87">
-        <f>G7+I7+K7+O7+S7</f>
+      <c r="T7" s="77">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AB7" s="30"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AB7" s="26"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="83">
+      <c r="A8" s="73">
         <v>6</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="61">
-        <f>D8/60</f>
+      <c r="C8" s="51">
+        <f t="shared" si="0"/>
         <v>28.6</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="52">
         <v>1716</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="53">
         <f>C8*Sheet1!$AD$3</f>
         <v>0.31936666666666669</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="54">
         <v>0.97</v>
       </c>
-      <c r="G8" s="65">
-        <f>RANK(F8,F$3:F$18)</f>
+      <c r="G8" s="55">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="56">
         <v>3.53</v>
       </c>
-      <c r="I8" s="67">
-        <f>RANK(H8,H$3:H$18)</f>
+      <c r="I8" s="57">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J8" s="64">
+      <c r="J8" s="54">
         <v>7.6</v>
       </c>
-      <c r="K8" s="65">
+      <c r="K8" s="55">
         <f>RANK(J8,J$3:J23,1)</f>
         <v>7</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="56">
         <v>1.24</v>
       </c>
-      <c r="M8" s="68">
+      <c r="M8" s="58">
         <v>3.12</v>
       </c>
-      <c r="N8" s="68">
+      <c r="N8" s="58">
         <v>3.35</v>
       </c>
-      <c r="O8" s="67">
-        <f>RANK(N8,N$3:N$18,1)</f>
+      <c r="O8" s="57">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="P8" s="64">
+      <c r="P8" s="54">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="Q8" s="69">
+      <c r="Q8" s="59">
         <v>1.36</v>
       </c>
-      <c r="R8" s="69">
+      <c r="R8" s="59">
         <v>1.36</v>
       </c>
-      <c r="S8" s="70">
-        <f>RANK(R8,R$3:R$18,1)</f>
+      <c r="S8" s="60">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="T8" s="87">
-        <f>G8+I8+K8+O8+S8</f>
+      <c r="T8" s="77">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AB8" s="30"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AB8" s="26"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="83">
+      <c r="A9" s="73">
         <v>7</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="61">
-        <f>D9/60</f>
+      <c r="C9" s="51">
+        <f t="shared" si="0"/>
         <v>27.466666666666665</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="52">
         <v>1648</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="53">
         <f>C9*Sheet1!$AD$3</f>
         <v>0.3067111111111111</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="54">
         <v>0.97</v>
       </c>
-      <c r="G9" s="65">
-        <f>RANK(F9,F$3:F$18)</f>
+      <c r="G9" s="55">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="56">
         <v>3.8</v>
       </c>
-      <c r="I9" s="67">
-        <f>RANK(H9,H$3:H$18)</f>
+      <c r="I9" s="57">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J9" s="64">
+      <c r="J9" s="54">
         <v>7.63</v>
       </c>
-      <c r="K9" s="65">
+      <c r="K9" s="55">
         <f>RANK(J9,J$3:J24,1)</f>
         <v>8</v>
       </c>
-      <c r="L9" s="66">
+      <c r="L9" s="56">
         <v>1.41</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="58">
         <v>3.04</v>
       </c>
-      <c r="N9" s="68">
+      <c r="N9" s="58">
         <v>3.35</v>
       </c>
-      <c r="O9" s="67">
-        <f>RANK(N9,N$3:N$18,1)</f>
+      <c r="O9" s="57">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="P9" s="64">
+      <c r="P9" s="54">
         <v>-0.24</v>
       </c>
-      <c r="Q9" s="69">
+      <c r="Q9" s="59">
         <v>1.34</v>
       </c>
-      <c r="R9" s="69">
+      <c r="R9" s="59">
         <v>1.36</v>
       </c>
-      <c r="S9" s="70">
-        <f>RANK(R9,R$3:R$18,1)</f>
+      <c r="S9" s="60">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="T9" s="87">
-        <f>G9+I9+K9+O9+S9</f>
+      <c r="T9" s="77">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AB9" s="30"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AB9" s="26"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="83">
+      <c r="A10" s="73">
         <v>8</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="61">
-        <f>D10/60</f>
+      <c r="C10" s="51">
+        <f t="shared" si="0"/>
         <v>65.3</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="52">
         <v>3918</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="53">
         <f>C10*Sheet1!$AD$3</f>
         <v>0.72918333333333329</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="54">
         <v>0.98</v>
       </c>
-      <c r="G10" s="65">
-        <f>RANK(F10,F$3:F$18)</f>
+      <c r="G10" s="55">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="56">
         <v>5.04</v>
       </c>
-      <c r="I10" s="67">
-        <f>RANK(H10,H$3:H$18)</f>
+      <c r="I10" s="57">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="54">
         <v>0.83</v>
       </c>
-      <c r="K10" s="65">
+      <c r="K10" s="55">
         <f>RANK(J10,J$3:J25,1)</f>
         <v>2</v>
       </c>
-      <c r="L10" s="66">
+      <c r="L10" s="56">
         <v>1.93</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="58">
         <v>5.27</v>
       </c>
-      <c r="N10" s="68">
+      <c r="N10" s="58">
         <v>5.61</v>
       </c>
-      <c r="O10" s="67">
-        <f>RANK(N10,N$3:N$18,1)</f>
+      <c r="O10" s="57">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="P10" s="64">
+      <c r="P10" s="54">
         <v>-0.66</v>
       </c>
-      <c r="Q10" s="69">
+      <c r="Q10" s="59">
         <v>3.18</v>
       </c>
-      <c r="R10" s="69">
+      <c r="R10" s="59">
         <v>3.24</v>
       </c>
-      <c r="S10" s="70">
-        <f>RANK(R10,R$3:R$18,1)</f>
+      <c r="S10" s="60">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="T10" s="87">
-        <f>G10+I10+K10+O10+S10</f>
+      <c r="T10" s="77">
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AB10" s="30"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AB10" s="26"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="83">
+      <c r="A11" s="73">
         <v>9</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="61">
-        <f>D11/60</f>
+      <c r="C11" s="51">
+        <f t="shared" si="0"/>
         <v>67.683333333333337</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="52">
         <v>4061</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="53">
         <f>C11*Sheet1!$AD$3</f>
         <v>0.75579722222222223</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="54">
         <v>0.88</v>
       </c>
-      <c r="G11" s="65">
-        <f>RANK(F11,F$3:F$18)</f>
+      <c r="G11" s="55">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="56">
         <v>4.13</v>
       </c>
-      <c r="I11" s="67">
-        <f>RANK(H11,H$3:H$18)</f>
+      <c r="I11" s="57">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J11" s="64">
+      <c r="J11" s="54">
         <v>34.83</v>
       </c>
-      <c r="K11" s="65">
+      <c r="K11" s="55">
         <f>RANK(J11,J$3:J26,1)</f>
         <v>12</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="56">
         <v>0.6</v>
       </c>
-      <c r="M11" s="68">
+      <c r="M11" s="58">
         <v>2.7</v>
       </c>
-      <c r="N11" s="68">
+      <c r="N11" s="58">
         <v>2.77</v>
       </c>
-      <c r="O11" s="67">
-        <f>RANK(N11,N$3:N$18,1)</f>
+      <c r="O11" s="57">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P11" s="64">
+      <c r="P11" s="54">
         <v>-0.11</v>
       </c>
-      <c r="Q11" s="69">
+      <c r="Q11" s="59">
         <v>1.39</v>
       </c>
-      <c r="R11" s="69">
+      <c r="R11" s="59">
         <v>1.39</v>
       </c>
-      <c r="S11" s="70">
-        <f>RANK(R11,R$3:R$18,1)</f>
+      <c r="S11" s="60">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="T11" s="87">
-        <f>G11+I11+K11+O11+S11</f>
+      <c r="T11" s="77">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AB11" s="30"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AB11" s="26"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="83">
+      <c r="A12" s="73">
         <v>10</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="61">
-        <f>D12/60</f>
+      <c r="C12" s="51">
+        <f t="shared" si="0"/>
         <v>33.18333333333333</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="52">
         <v>1991</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="53">
         <f>C12*Sheet1!$AD$3</f>
         <v>0.37054722222222219</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="54">
         <v>0.97</v>
       </c>
-      <c r="G12" s="65">
-        <f>RANK(F12,F$3:F$18)</f>
+      <c r="G12" s="55">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="56">
         <v>4</v>
       </c>
-      <c r="I12" s="67">
-        <f>RANK(H12,H$3:H$18)</f>
+      <c r="I12" s="57">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="54">
         <v>1.98</v>
       </c>
-      <c r="K12" s="65">
+      <c r="K12" s="55">
         <f>RANK(J12,J$3:J27,1)</f>
         <v>3</v>
       </c>
-      <c r="L12" s="66">
+      <c r="L12" s="56">
         <v>1.91</v>
       </c>
-      <c r="M12" s="68">
+      <c r="M12" s="58">
         <v>5.28</v>
       </c>
-      <c r="N12" s="68">
+      <c r="N12" s="58">
         <v>5.61</v>
       </c>
-      <c r="O12" s="67">
-        <f>RANK(N12,N$3:N$18,1)</f>
+      <c r="O12" s="57">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="P12" s="64">
+      <c r="P12" s="54">
         <v>-0.64</v>
       </c>
-      <c r="Q12" s="69">
+      <c r="Q12" s="59">
         <v>3.16</v>
       </c>
-      <c r="R12" s="69">
+      <c r="R12" s="59">
         <v>3.23</v>
       </c>
-      <c r="S12" s="70">
-        <f>RANK(R12,R$3:R$18,1)</f>
+      <c r="S12" s="60">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="T12" s="87">
-        <f>G12+I12+K12+O12+S12</f>
+      <c r="T12" s="77">
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AB12" s="30"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AB12" s="26"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="83">
+      <c r="A13" s="73">
         <v>11</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="61">
-        <f>D13/60</f>
+      <c r="C13" s="51">
+        <f t="shared" si="0"/>
         <v>44.733333333333334</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="52">
         <v>2684</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="53">
         <f>C13*Sheet1!$AD$3</f>
         <v>0.49952222222222226</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="54">
         <v>0.87</v>
       </c>
-      <c r="G13" s="65">
-        <f>RANK(F13,F$3:F$18)</f>
+      <c r="G13" s="55">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="56">
         <v>2.92</v>
       </c>
-      <c r="I13" s="67">
-        <f>RANK(H13,H$3:H$18)</f>
+      <c r="I13" s="57">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J13" s="64">
+      <c r="J13" s="54">
         <v>34.450000000000003</v>
       </c>
-      <c r="K13" s="65">
+      <c r="K13" s="55">
         <f>RANK(J13,J$3:J28,1)</f>
         <v>11</v>
       </c>
-      <c r="L13" s="66">
+      <c r="L13" s="56">
         <v>0.94</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="58">
         <v>2.85</v>
       </c>
-      <c r="N13" s="68">
+      <c r="N13" s="58">
         <v>3</v>
       </c>
-      <c r="O13" s="67">
-        <f>RANK(N13,N$3:N$18,1)</f>
+      <c r="O13" s="57">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="P13" s="64">
+      <c r="P13" s="54">
         <v>-0.26</v>
       </c>
-      <c r="Q13" s="69">
+      <c r="Q13" s="59">
         <v>1.45</v>
       </c>
-      <c r="R13" s="69">
+      <c r="R13" s="59">
         <v>1.47</v>
       </c>
-      <c r="S13" s="70">
-        <f>RANK(R13,R$3:R$18,1)</f>
+      <c r="S13" s="60">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="T13" s="87">
-        <f>G13+I13+K13+O13+S13</f>
+      <c r="T13" s="77">
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AB13" s="30"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AB13" s="26"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="83">
+      <c r="A14" s="73">
         <v>12</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="61">
-        <f>D14/60</f>
+      <c r="C14" s="51">
+        <f t="shared" si="0"/>
         <v>45.666666666666664</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="61">
         <v>2740</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="53">
         <f>C14*Sheet1!$AD$3</f>
         <v>0.50994444444444442</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="54">
         <v>0.84</v>
       </c>
-      <c r="G14" s="65">
-        <f>RANK(F14,F$3:F$18)</f>
+      <c r="G14" s="55">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H14" s="66">
+      <c r="H14" s="56">
         <v>2.78</v>
       </c>
-      <c r="I14" s="67">
-        <f>RANK(H14,H$3:H$18)</f>
+      <c r="I14" s="57">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="J14" s="64">
+      <c r="J14" s="54">
         <v>36.04</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K14" s="55">
         <f>RANK(J14,J$3:J29,1)</f>
         <v>13</v>
       </c>
-      <c r="L14" s="66">
+      <c r="L14" s="56">
         <v>0.84</v>
       </c>
-      <c r="M14" s="68">
+      <c r="M14" s="58">
         <v>2.76</v>
       </c>
-      <c r="N14" s="68">
+      <c r="N14" s="58">
         <v>2.88</v>
       </c>
-      <c r="O14" s="67">
-        <f>RANK(N14,N$3:N$18,1)</f>
+      <c r="O14" s="57">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="P14" s="64">
+      <c r="P14" s="54">
         <v>-0.26</v>
       </c>
-      <c r="Q14" s="69">
+      <c r="Q14" s="59">
         <v>1.34</v>
       </c>
-      <c r="R14" s="69">
+      <c r="R14" s="59">
         <v>1.37</v>
       </c>
-      <c r="S14" s="70">
-        <f>RANK(R14,R$3:R$18,1)</f>
+      <c r="S14" s="60">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="T14" s="87">
-        <f>G14+I14+K14+O14+S14</f>
+      <c r="T14" s="77">
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AB14" s="30"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AB14" s="26"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="83">
+      <c r="A15" s="73">
         <v>13</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="61">
-        <f>D15/60</f>
+      <c r="C15" s="51">
+        <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="52">
         <v>2500</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="53">
         <f>C15*Sheet1!$AD$3</f>
         <v>0.46527777777777773</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="54">
         <v>0.82</v>
       </c>
-      <c r="G15" s="65">
-        <f>RANK(F15,F$3:F$18)</f>
+      <c r="G15" s="55">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H15" s="56">
         <v>2.92</v>
       </c>
-      <c r="I15" s="67">
-        <f>RANK(H15,H$3:H$18)</f>
+      <c r="I15" s="57">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J15" s="64">
+      <c r="J15" s="54">
         <v>38.07</v>
       </c>
-      <c r="K15" s="65">
+      <c r="K15" s="55">
         <f>RANK(J15,J$3:J30,1)</f>
         <v>14</v>
       </c>
-      <c r="L15" s="66">
+      <c r="L15" s="56">
         <v>0.71</v>
       </c>
-      <c r="M15" s="68">
+      <c r="M15" s="58">
         <v>2.76</v>
       </c>
-      <c r="N15" s="68">
+      <c r="N15" s="58">
         <v>2.85</v>
       </c>
-      <c r="O15" s="67">
-        <f>RANK(N15,N$3:N$18,1)</f>
+      <c r="O15" s="57">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="P15" s="64">
+      <c r="P15" s="54">
         <v>-0.23</v>
       </c>
-      <c r="Q15" s="69">
+      <c r="Q15" s="59">
         <v>1.58</v>
       </c>
-      <c r="R15" s="69">
+      <c r="R15" s="59">
         <v>1.6</v>
       </c>
-      <c r="S15" s="70">
-        <f>RANK(R15,R$3:R$18,1)</f>
+      <c r="S15" s="60">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="T15" s="87">
-        <f>G15+I15+K15+O15+S15</f>
+      <c r="T15" s="77">
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AB15" s="30"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AB15" s="26"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="83">
+      <c r="A16" s="73">
         <v>14</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="61">
-        <f>D16/60</f>
+      <c r="C16" s="51">
+        <f t="shared" si="0"/>
         <v>45.43333333333333</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="52">
         <v>2726</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="53">
         <f>C16*Sheet1!$AD$3</f>
         <v>0.50733888888888889</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="54">
         <v>0.77</v>
       </c>
-      <c r="G16" s="65">
-        <f>RANK(F16,F$3:F$18)</f>
+      <c r="G16" s="55">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H16" s="66">
+      <c r="H16" s="56">
         <v>2.85</v>
       </c>
-      <c r="I16" s="67">
-        <f>RANK(H16,H$3:H$18)</f>
+      <c r="I16" s="57">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="J16" s="64">
+      <c r="J16" s="54">
         <v>51.21</v>
       </c>
-      <c r="K16" s="65">
+      <c r="K16" s="55">
         <f>RANK(J16,J$3:J31,1)</f>
         <v>15</v>
       </c>
-      <c r="L16" s="66">
+      <c r="L16" s="56">
         <v>0.98</v>
       </c>
-      <c r="M16" s="68">
+      <c r="M16" s="58">
         <v>2.82</v>
       </c>
-      <c r="N16" s="68">
+      <c r="N16" s="58">
         <v>2.99</v>
       </c>
-      <c r="O16" s="67">
-        <f>RANK(N16,N$3:N$18,1)</f>
+      <c r="O16" s="57">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="P16" s="64">
+      <c r="P16" s="54">
         <v>-0.24</v>
       </c>
-      <c r="Q16" s="69">
+      <c r="Q16" s="59">
         <v>1.44</v>
       </c>
-      <c r="R16" s="69">
+      <c r="R16" s="59">
         <v>1.46</v>
       </c>
-      <c r="S16" s="70">
-        <f>RANK(R16,R$3:R$18,1)</f>
+      <c r="S16" s="60">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="T16" s="87">
-        <f>G16+I16+K16+O16+S16</f>
+      <c r="T16" s="77">
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AB16" s="30"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AB16" s="26"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="83">
+      <c r="A17" s="73">
         <v>15</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="61">
-        <f>D17/60</f>
+      <c r="C17" s="51">
+        <f t="shared" si="0"/>
         <v>43.366666666666667</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="52">
         <v>2602</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="53">
         <f>C17*Sheet1!$AD$3</f>
         <v>0.48426111111111114</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="54">
         <v>0.93</v>
       </c>
-      <c r="G17" s="65">
-        <f>RANK(F17,F$3:F$18)</f>
+      <c r="G17" s="55">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="56">
         <v>2.65</v>
       </c>
-      <c r="I17" s="67">
-        <f>RANK(H17,H$3:H$18)</f>
+      <c r="I17" s="57">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J17" s="64">
+      <c r="J17" s="54">
         <v>2.39</v>
       </c>
-      <c r="K17" s="65">
+      <c r="K17" s="55">
         <f>RANK(J17,J$3:J32,1)</f>
         <v>4</v>
       </c>
-      <c r="L17" s="66">
+      <c r="L17" s="56">
         <v>1.93</v>
       </c>
-      <c r="M17" s="68">
+      <c r="M17" s="58">
         <v>5.29</v>
       </c>
-      <c r="N17" s="68">
+      <c r="N17" s="58">
         <v>5.63</v>
       </c>
-      <c r="O17" s="67">
-        <f>RANK(N17,N$3:N$18,1)</f>
+      <c r="O17" s="57">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="P17" s="64">
+      <c r="P17" s="54">
         <v>-0.67</v>
       </c>
-      <c r="Q17" s="69">
+      <c r="Q17" s="59">
         <v>3.18</v>
       </c>
-      <c r="R17" s="69">
+      <c r="R17" s="59">
         <v>3.25</v>
       </c>
-      <c r="S17" s="70">
-        <f>RANK(R17,R$3:R$18,1)</f>
+      <c r="S17" s="60">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="T17" s="87">
-        <f>G17+I17+K17+O17+S17</f>
+      <c r="T17" s="77">
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AB17" s="30"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AB17" s="26"/>
     </row>
     <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="84">
+      <c r="A18" s="74">
         <v>16</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="73">
-        <f>D18/60</f>
+      <c r="C18" s="63">
+        <f t="shared" si="0"/>
         <v>45.31666666666667</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="64">
         <v>2719</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="65">
         <f>C18*Sheet1!$AD$3</f>
         <v>0.50603611111111113</v>
       </c>
-      <c r="F18" s="76">
+      <c r="F18" s="66">
         <v>0.77</v>
       </c>
-      <c r="G18" s="77">
-        <f>RANK(F18,F$3:F$18)</f>
+      <c r="G18" s="67">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="68">
         <v>2.56</v>
       </c>
-      <c r="I18" s="79">
-        <f>RANK(H18,H$3:H$18)</f>
+      <c r="I18" s="69">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="J18" s="76">
+      <c r="J18" s="66">
         <v>54.25</v>
       </c>
-      <c r="K18" s="77">
+      <c r="K18" s="67">
         <f>RANK(J18,J$3:J33,1)</f>
         <v>16</v>
       </c>
-      <c r="L18" s="78">
+      <c r="L18" s="68">
         <v>1.06</v>
       </c>
-      <c r="M18" s="80">
+      <c r="M18" s="70">
         <v>3.17</v>
       </c>
-      <c r="N18" s="80">
+      <c r="N18" s="70">
         <v>3.35</v>
       </c>
-      <c r="O18" s="79">
-        <f>RANK(N18,N$3:N$18,1)</f>
+      <c r="O18" s="69">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="P18" s="76">
+      <c r="P18" s="66">
         <v>-0.33</v>
       </c>
-      <c r="Q18" s="81">
+      <c r="Q18" s="71">
         <v>1.71</v>
       </c>
-      <c r="R18" s="81">
+      <c r="R18" s="71">
         <v>1.74</v>
       </c>
-      <c r="S18" s="82">
-        <f>RANK(R18,R$3:R$18,1)</f>
+      <c r="S18" s="72">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="T18" s="88">
-        <f>G18+I18+K18+O18+S18</f>
+      <c r="T18" s="78">
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AB18" s="30"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AB18" s="26"/>
     </row>
   </sheetData>
   <sortState ref="B3:T18">
@@ -5088,4 +5202,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D329C0-A439-4DC1-AE72-CDD2C4573D34}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="90">
+        <v>1</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="90">
+        <v>6</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="90">
+        <v>2</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="90">
+        <v>6</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="90">
+        <v>3</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="90">
+        <v>6</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="90">
+        <v>4</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="90">
+        <v>6</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="90">
+        <v>5</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="90">
+        <v>6</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="90">
+        <v>6</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="90">
+        <v>6</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="90">
+        <v>7</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="90">
+        <v>6</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="90">
+        <v>8</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="90">
+        <v>6</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="90">
+        <v>9</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="90">
+        <v>11</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="90">
+        <v>10</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="90">
+        <v>11</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="90">
+        <v>11</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="90">
+        <v>11</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="90">
+        <v>12</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="90">
+        <v>11</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="90">
+        <v>13</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="90">
+        <v>11</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="90">
+        <v>14</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="90">
+        <v>11</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="92">
+        <v>15</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="92">
+        <v>11</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="90">
+        <v>16</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="90">
+        <v>11</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{793F3105-6F1D-4CCE-8177-0C57593CD645}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{2BFE3C3A-C12F-40C0-997E-74D5F017793C}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{182F54F6-AE41-4D04-BA14-6D1D17A3F9AF}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{55509FF7-346C-444F-AFEE-A517543958EA}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{32FCF988-EC9A-46F9-B522-54AFD27610BD}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{64BBC92A-34C4-48FA-958D-CD2B79B96FC2}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{75E06430-EFC1-4A6A-9C9E-5236001BC760}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{1FDB9AF0-7537-4F58-8076-E2FAD10874FA}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{DDEF6CD2-2F8D-4340-8E7A-D7AD5B1FD1DD}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{3176562D-E13E-436E-A123-C1513C6ADD0A}"/>
+    <hyperlink ref="E15" r:id="rId11" xr:uid="{03F7AEC6-503A-4E8E-A877-C3131ADAF2E3}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{DC7A1BC9-4D56-4F81-AA1B-F45A960D6AFF}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{B8CAC36D-BAB9-4210-B255-3AADFB51D478}"/>
+    <hyperlink ref="E8" r:id="rId14" xr:uid="{38834C33-717D-40E2-ABA5-8C000308E53D}"/>
+    <hyperlink ref="E9" r:id="rId15" xr:uid="{AAE4EEB4-5691-4859-87F3-4CE515C5ADDF}"/>
+    <hyperlink ref="E12" r:id="rId16" xr:uid="{CC3B7B61-06ED-4F93-A8D8-3199377D8665}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+</worksheet>
 </file>